--- a/Code/Results/Cases/Case_5_34/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_34/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,25 +409,31 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.73504609833625</v>
+        <v>27.09653131522676</v>
       </c>
       <c r="C2">
-        <v>13.88046930092567</v>
+        <v>20.46196185140773</v>
       </c>
       <c r="D2">
-        <v>9.851839395217597</v>
+        <v>2.480636123498225</v>
       </c>
       <c r="E2">
-        <v>7.585036816838034</v>
+        <v>30.50054614974336</v>
       </c>
       <c r="F2">
-        <v>63.23882600385791</v>
+        <v>32.43072902878458</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -439,30 +445,36 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>8.892789828658108</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>15.33234930838705</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>10.45750811286255</v>
+      </c>
+      <c r="O2">
+        <v>24.82830727168999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.09281388853086</v>
+        <v>25.14851035484321</v>
       </c>
       <c r="C3">
-        <v>12.86485698595881</v>
+        <v>19.02338802115699</v>
       </c>
       <c r="D3">
-        <v>9.381726190212738</v>
+        <v>2.598504335668753</v>
       </c>
       <c r="E3">
-        <v>7.36362720909545</v>
+        <v>28.17500546491173</v>
       </c>
       <c r="F3">
-        <v>59.31526824326618</v>
+        <v>30.4744262462913</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -474,30 +486,36 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>8.450277086911916</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>14.22227619465524</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>10.77988943086254</v>
+      </c>
+      <c r="O3">
+        <v>23.458484681024</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.04263764267187</v>
+        <v>23.8942614518841</v>
       </c>
       <c r="C4">
-        <v>12.21717012243973</v>
+        <v>18.09850470536833</v>
       </c>
       <c r="D4">
-        <v>9.089421995030856</v>
+        <v>2.672825287454731</v>
       </c>
       <c r="E4">
-        <v>7.229441706773386</v>
+        <v>26.69317773476643</v>
       </c>
       <c r="F4">
-        <v>56.84239693102731</v>
+        <v>29.2624289840374</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -509,30 +527,36 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>8.17770677510304</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>13.51140023744824</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>10.97924668047106</v>
+      </c>
+      <c r="O4">
+        <v>22.61941413622079</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.60379432418069</v>
+        <v>23.36818649616694</v>
       </c>
       <c r="C5">
-        <v>11.94688697761694</v>
+        <v>17.71089646176716</v>
       </c>
       <c r="D5">
-        <v>8.969367531517259</v>
+        <v>2.703553906322526</v>
       </c>
       <c r="E5">
-        <v>7.175180957412566</v>
+        <v>26.07505247469539</v>
       </c>
       <c r="F5">
-        <v>55.81857522756737</v>
+        <v>28.766019959592</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -544,30 +568,36 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>8.066470685116721</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>13.21409383471578</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>11.06094207932095</v>
+      </c>
+      <c r="O5">
+        <v>22.27813956535834</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.53025730606266</v>
+        <v>23.2799194634738</v>
       </c>
       <c r="C6">
-        <v>11.9016156696297</v>
+        <v>17.64588067789915</v>
       </c>
       <c r="D6">
-        <v>8.949375858423574</v>
+        <v>2.708682032465904</v>
       </c>
       <c r="E6">
-        <v>7.166195940690069</v>
+        <v>25.9715322864621</v>
       </c>
       <c r="F6">
-        <v>55.64760064761315</v>
+        <v>28.68344914978688</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -579,30 +609,36 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>8.047992498667156</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>13.16425925505489</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>11.07453782467997</v>
+      </c>
+      <c r="O6">
+        <v>22.22151691267322</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.03676378363721</v>
+        <v>23.8872276087067</v>
       </c>
       <c r="C7">
-        <v>12.21355103667532</v>
+        <v>18.09332096526622</v>
       </c>
       <c r="D7">
-        <v>9.087806703403349</v>
+        <v>2.673237963323289</v>
       </c>
       <c r="E7">
-        <v>7.228708245877479</v>
+        <v>26.68490013101951</v>
       </c>
       <c r="F7">
-        <v>56.82865442882611</v>
+        <v>29.25574401105663</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -614,30 +650,36 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>8.176207163307533</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>13.5074218240063</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>10.98034648198505</v>
+      </c>
+      <c r="O7">
+        <v>22.61480867251775</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.17725115733946</v>
+        <v>26.43671300134918</v>
       </c>
       <c r="C8">
-        <v>13.53510429062561</v>
+        <v>19.97441329889627</v>
       </c>
       <c r="D8">
-        <v>9.690481877080732</v>
+        <v>2.520836925417136</v>
       </c>
       <c r="E8">
-        <v>7.508313267156622</v>
+        <v>29.70944356242556</v>
       </c>
       <c r="F8">
-        <v>61.89910235213919</v>
+        <v>31.75851813706882</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -649,30 +691,36 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>8.740414781728115</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>14.95551248233912</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>10.56843495663397</v>
+      </c>
+      <c r="O8">
+        <v>24.35563300273559</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>25.06228971589002</v>
+        <v>30.99171174199885</v>
       </c>
       <c r="C9">
-        <v>15.95044823095426</v>
+        <v>23.34630756594032</v>
       </c>
       <c r="D9">
-        <v>10.84588897959536</v>
+        <v>2.241063159625241</v>
       </c>
       <c r="E9">
-        <v>8.072171330996603</v>
+        <v>35.24940727988513</v>
       </c>
       <c r="F9">
-        <v>71.35351925011356</v>
+        <v>36.6519081055926</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -684,30 +732,36 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>9.852473788653041</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>17.57600285641598</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>9.766843716740206</v>
+      </c>
+      <c r="O9">
+        <v>27.82568774458661</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.75882177782153</v>
+        <v>34.0943414237137</v>
       </c>
       <c r="C10">
-        <v>17.64245981397079</v>
+        <v>25.65191664578493</v>
       </c>
       <c r="D10">
-        <v>11.68504068000672</v>
+        <v>2.055754428896323</v>
       </c>
       <c r="E10">
-        <v>8.499311646873755</v>
+        <v>39.14236343095659</v>
       </c>
       <c r="F10">
-        <v>78.04836385301773</v>
+        <v>40.45099970941862</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -719,30 +773,36 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>10.87747487691794</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>19.38924736527629</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>9.173703547590742</v>
+      </c>
+      <c r="O10">
+        <v>30.78260778442706</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.96053864812274</v>
+        <v>35.46015749754098</v>
       </c>
       <c r="C11">
-        <v>18.40131984778894</v>
+        <v>26.66945710052521</v>
       </c>
       <c r="D11">
-        <v>12.06705163725426</v>
+        <v>1.979373457655978</v>
       </c>
       <c r="E11">
-        <v>8.697615240411789</v>
+        <v>40.89230276463135</v>
       </c>
       <c r="F11">
-        <v>81.05680043485299</v>
+        <v>42.1625689173872</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -754,30 +814,36 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>11.33275492624662</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>20.19583562559536</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>8.900878368649852</v>
+      </c>
+      <c r="O11">
+        <v>32.11560914476934</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>29.41298402209894</v>
+        <v>35.97154511000324</v>
       </c>
       <c r="C12">
-        <v>18.6878644885447</v>
+        <v>27.0508874938615</v>
       </c>
       <c r="D12">
-        <v>12.21203044303748</v>
+        <v>1.952064291201312</v>
       </c>
       <c r="E12">
-        <v>8.773423102166213</v>
+        <v>41.55379508545225</v>
       </c>
       <c r="F12">
-        <v>82.19271733169315</v>
+        <v>42.80938569027225</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -789,30 +855,36 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>11.50391134519266</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>20.49927092485974</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>8.796933789988657</v>
+      </c>
+      <c r="O12">
+        <v>32.61954925202583</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>29.3156405773096</v>
+        <v>35.86165408070271</v>
       </c>
       <c r="C13">
-        <v>18.62617484903958</v>
+        <v>26.96890159560473</v>
       </c>
       <c r="D13">
-        <v>12.1807871073877</v>
+        <v>1.957864318483942</v>
       </c>
       <c r="E13">
-        <v>8.757062050959268</v>
+        <v>41.41134901815875</v>
       </c>
       <c r="F13">
-        <v>81.94818636508735</v>
+        <v>42.67012034890724</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -824,30 +896,36 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>11.46709921230214</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>20.43399837920125</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>8.819351681231034</v>
+      </c>
+      <c r="O13">
+        <v>32.51103706820241</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.99780778369235</v>
+        <v>35.50234151946123</v>
       </c>
       <c r="C14">
-        <v>18.42490564210019</v>
+        <v>26.70091163679629</v>
       </c>
       <c r="D14">
-        <v>12.07897083069108</v>
+        <v>1.977090938395676</v>
       </c>
       <c r="E14">
-        <v>8.703836723385427</v>
+        <v>40.94673553745979</v>
       </c>
       <c r="F14">
-        <v>81.15030580611126</v>
+        <v>42.21580209140448</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -859,30 +937,36 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>11.3468589301543</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>20.22083550920526</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>8.892340685853165</v>
+      </c>
+      <c r="O14">
+        <v>32.15707938092351</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.80281729746767</v>
+        <v>35.28151891113937</v>
       </c>
       <c r="C15">
-        <v>18.30154049055401</v>
+        <v>26.53627363633691</v>
       </c>
       <c r="D15">
-        <v>12.01665673105634</v>
+        <v>1.989095470181601</v>
       </c>
       <c r="E15">
-        <v>8.671332610124859</v>
+        <v>40.66205569398883</v>
       </c>
       <c r="F15">
-        <v>80.66121903264873</v>
+        <v>41.93738450336761</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -894,30 +978,36 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>11.27305677998742</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>20.09002711664692</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>8.936959910738585</v>
+      </c>
+      <c r="O15">
+        <v>31.94019172605647</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.67986297395931</v>
+        <v>34.00422482851077</v>
       </c>
       <c r="C16">
-        <v>17.59270804077494</v>
+        <v>25.58483772554836</v>
       </c>
       <c r="D16">
-        <v>11.66010305017398</v>
+        <v>2.060941952314101</v>
       </c>
       <c r="E16">
-        <v>8.486443486279276</v>
+        <v>39.02772715230136</v>
       </c>
       <c r="F16">
-        <v>77.85116951073114</v>
+        <v>40.33889507742277</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -929,30 +1019,36 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>10.8475269388703</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>19.33621788636882</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>9.191456417516591</v>
+      </c>
+      <c r="O16">
+        <v>30.69532122560388</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.98520484682195</v>
+        <v>33.20945431852943</v>
       </c>
       <c r="C17">
-        <v>17.1555638639526</v>
+        <v>24.99354543756714</v>
       </c>
       <c r="D17">
-        <v>11.44161457049364</v>
+        <v>2.107328281757769</v>
       </c>
       <c r="E17">
-        <v>8.374130521337211</v>
+        <v>38.02093540014827</v>
       </c>
       <c r="F17">
-        <v>76.11906703722892</v>
+        <v>39.35468591854956</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -964,30 +1060,36 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>10.58387833518984</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>18.86950787248332</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>9.346678799952695</v>
+      </c>
+      <c r="O17">
+        <v>29.92910244873175</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.58323910942832</v>
+        <v>32.74798138315905</v>
       </c>
       <c r="C18">
-        <v>16.90305699282994</v>
+        <v>24.65046166477457</v>
       </c>
       <c r="D18">
-        <v>11.31595084277329</v>
+        <v>2.134715947297309</v>
       </c>
       <c r="E18">
-        <v>8.309896615577337</v>
+        <v>37.43974897742915</v>
       </c>
       <c r="F18">
-        <v>75.1191669019324</v>
+        <v>38.78694679129991</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -999,30 +1101,36 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>10.43117608512482</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>18.59930545615285</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>9.435689430831292</v>
+      </c>
+      <c r="O18">
+        <v>29.48718659866718</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.44669901180269</v>
+        <v>32.59096851383709</v>
       </c>
       <c r="C19">
-        <v>16.81735812311218</v>
+        <v>24.53376949521576</v>
       </c>
       <c r="D19">
-        <v>11.27339687162935</v>
+        <v>2.144098850598891</v>
       </c>
       <c r="E19">
-        <v>8.288207280712912</v>
+        <v>37.24255760121243</v>
       </c>
       <c r="F19">
-        <v>74.77993979288146</v>
+        <v>38.59440877441601</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1034,30 +1142,36 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>10.3792828124502</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>18.50749971410876</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>9.46578632820825</v>
+      </c>
+      <c r="O19">
+        <v>29.33733030908551</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>27.0593961359411</v>
+        <v>33.29450345809296</v>
       </c>
       <c r="C20">
-        <v>17.20220480386221</v>
+        <v>25.05679472685417</v>
       </c>
       <c r="D20">
-        <v>11.46487074250882</v>
+        <v>2.102314292436687</v>
       </c>
       <c r="E20">
-        <v>8.386047710814717</v>
+        <v>38.12831601671286</v>
       </c>
       <c r="F20">
-        <v>76.30381619397727</v>
+        <v>39.45962033403899</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1069,30 +1183,36 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>10.61205152981264</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>18.91936830818019</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>9.330184333742666</v>
+      </c>
+      <c r="O20">
+        <v>30.01078685695639</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>29.09122528197582</v>
+        <v>35.6080316227611</v>
       </c>
       <c r="C21">
-        <v>18.48403880652434</v>
+        <v>26.77972688346152</v>
       </c>
       <c r="D21">
-        <v>12.10886542791823</v>
+        <v>1.971395035496864</v>
       </c>
       <c r="E21">
-        <v>8.719449570721713</v>
+        <v>41.0832187647998</v>
       </c>
       <c r="F21">
-        <v>81.38473366225783</v>
+        <v>42.34927206218633</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1104,30 +1224,36 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>11.38220729440772</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>20.28349531651245</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>8.87092091578983</v>
+      </c>
+      <c r="O21">
+        <v>32.26105970534467</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>30.40449301228803</v>
+        <v>37.08660111944756</v>
       </c>
       <c r="C22">
-        <v>19.31748794806862</v>
+        <v>27.88346773326441</v>
       </c>
       <c r="D22">
-        <v>12.53180905964212</v>
+        <v>1.976100158228065</v>
       </c>
       <c r="E22">
-        <v>8.941610169907767</v>
+        <v>43.00877698961965</v>
       </c>
       <c r="F22">
-        <v>84.68747051772054</v>
+        <v>44.23087493108417</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1139,30 +1265,36 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>11.87848122339495</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>21.16375381995176</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>8.566971105738947</v>
+      </c>
+      <c r="O22">
+        <v>33.72745697458153</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.70453956109453</v>
+        <v>36.30023903157068</v>
       </c>
       <c r="C23">
-        <v>18.87276445128095</v>
+        <v>27.29618480808915</v>
       </c>
       <c r="D23">
-        <v>12.30577298965879</v>
+        <v>1.934954586743882</v>
       </c>
       <c r="E23">
-        <v>8.822590820825271</v>
+        <v>41.98085952144674</v>
       </c>
       <c r="F23">
-        <v>82.92555673608982</v>
+        <v>43.22682720440768</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1174,30 +1306,36 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>11.61412803247515</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>20.69473240954819</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>8.729615389449163</v>
+      </c>
+      <c r="O23">
+        <v>32.94484179048786</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>27.02586241515617</v>
+        <v>33.25606696435625</v>
       </c>
       <c r="C24">
-        <v>17.18112218540358</v>
+        <v>25.02820955404553</v>
       </c>
       <c r="D24">
-        <v>11.45435680846605</v>
+        <v>2.104578908941358</v>
       </c>
       <c r="E24">
-        <v>8.380658911900188</v>
+        <v>38.07977675069837</v>
       </c>
       <c r="F24">
-        <v>76.22030398876009</v>
+        <v>39.41218549333145</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1209,30 +1347,36 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>10.59931796359496</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>18.8968323207098</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>9.337642179774345</v>
+      </c>
+      <c r="O24">
+        <v>29.97386178192112</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>24.04170022594561</v>
+        <v>29.80448523427725</v>
       </c>
       <c r="C25">
-        <v>15.3135838532767</v>
+        <v>22.46603372366442</v>
       </c>
       <c r="D25">
-        <v>10.53564845721844</v>
+        <v>2.314045899764076</v>
       </c>
       <c r="E25">
-        <v>7.917686504712841</v>
+        <v>33.7868908280133</v>
       </c>
       <c r="F25">
-        <v>68.84455068989735</v>
+        <v>35.28436729733546</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1244,10 +1388,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>9.542781984869746</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>16.88853527365969</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>9.983800073976077</v>
+      </c>
+      <c r="O25">
+        <v>26.85501378206118</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_34/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_34/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>27.09653131522676</v>
+        <v>13.73148204886056</v>
       </c>
       <c r="C2">
-        <v>20.46196185140773</v>
+        <v>6.211892273758283</v>
       </c>
       <c r="D2">
-        <v>2.480636123498225</v>
+        <v>5.474644641227207</v>
       </c>
       <c r="E2">
-        <v>30.50054614974336</v>
+        <v>7.586799925494973</v>
       </c>
       <c r="F2">
-        <v>32.43072902878458</v>
+        <v>23.62084792259019</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>16.72927630909363</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>5.696356663081655</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>10.98419052496533</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>6.957696194778501</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>10.45750811286255</v>
+        <v>13.30424656827624</v>
       </c>
       <c r="O2">
-        <v>24.82830727168999</v>
+        <v>17.56266330424982</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,40 +462,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>25.14851035484321</v>
+        <v>12.90892155076917</v>
       </c>
       <c r="C3">
-        <v>19.02338802115699</v>
+        <v>6.025853962922422</v>
       </c>
       <c r="D3">
-        <v>2.598504335668753</v>
+        <v>5.298638970452103</v>
       </c>
       <c r="E3">
-        <v>28.17500546491173</v>
+        <v>7.536103991323968</v>
       </c>
       <c r="F3">
-        <v>30.4744262462913</v>
+        <v>23.48397315665351</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>16.8529138538608</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>5.734527150380103</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>10.29630561424791</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>6.827966794311374</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>10.77988943086254</v>
+        <v>13.49062897756273</v>
       </c>
       <c r="O3">
-        <v>23.458484681024</v>
+        <v>17.59612945678225</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,40 +503,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>23.8942614518841</v>
+        <v>12.37954676894977</v>
       </c>
       <c r="C4">
-        <v>18.09850470536833</v>
+        <v>5.908328441796232</v>
       </c>
       <c r="D4">
-        <v>2.672825287454731</v>
+        <v>5.189404029321663</v>
       </c>
       <c r="E4">
-        <v>26.69317773476643</v>
+        <v>7.507758629386227</v>
       </c>
       <c r="F4">
-        <v>29.2624289840374</v>
+        <v>23.41581174317582</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>16.93854964052967</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>5.75918192312727</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>9.849818094536507</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>6.749621463920312</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>10.97924668047106</v>
+        <v>13.6078179487184</v>
       </c>
       <c r="O4">
-        <v>22.61941413622079</v>
+        <v>17.62822141022285</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,40 +544,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>23.36818649616694</v>
+        <v>12.15784864183486</v>
       </c>
       <c r="C5">
-        <v>17.71089646176716</v>
+        <v>5.859643832946021</v>
       </c>
       <c r="D5">
-        <v>2.703553906322526</v>
+        <v>5.144663925279843</v>
       </c>
       <c r="E5">
-        <v>26.07505247469539</v>
+        <v>7.496906754815886</v>
       </c>
       <c r="F5">
-        <v>28.766019959592</v>
+        <v>23.39194610373188</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>16.97581485981059</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>5.769534958057005</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>9.661809905931335</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>6.718058808893964</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>11.06094207932095</v>
+        <v>13.65628184951444</v>
       </c>
       <c r="O5">
-        <v>22.27813956535834</v>
+        <v>17.64410889737525</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,40 +585,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>23.2799194634738</v>
+        <v>12.1206798932399</v>
       </c>
       <c r="C6">
-        <v>17.64588067789915</v>
+        <v>5.851513114483324</v>
       </c>
       <c r="D6">
-        <v>2.708682032465904</v>
+        <v>5.137223278970176</v>
       </c>
       <c r="E6">
-        <v>25.9715322864621</v>
+        <v>7.49514699631854</v>
       </c>
       <c r="F6">
-        <v>28.68344914978688</v>
+        <v>23.38821688079373</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>16.98214355971717</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>5.771272548673345</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>9.630225546378396</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>6.712840824332118</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>11.07453782467997</v>
+        <v>13.66437251901124</v>
       </c>
       <c r="O6">
-        <v>22.22151691267322</v>
+        <v>17.64691399599688</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,40 +626,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>23.8872276087067</v>
+        <v>12.37658084409361</v>
       </c>
       <c r="C7">
-        <v>18.09332096526622</v>
+        <v>5.907675019123175</v>
       </c>
       <c r="D7">
-        <v>2.673237963323289</v>
+        <v>5.188801471043373</v>
       </c>
       <c r="E7">
-        <v>26.68490013101951</v>
+        <v>7.507609448082113</v>
       </c>
       <c r="F7">
-        <v>29.25574401105663</v>
+        <v>23.41547416266841</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>16.93904272349233</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>5.759320308982867</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>9.847307077826759</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>6.749194280857328</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>10.98034648198505</v>
+        <v>13.60846865921936</v>
       </c>
       <c r="O7">
-        <v>22.61480867251775</v>
+        <v>17.62842442028823</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,40 +667,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>26.43671300134918</v>
+        <v>13.45298512463138</v>
       </c>
       <c r="C8">
-        <v>19.97441329889627</v>
+        <v>6.148451681109587</v>
       </c>
       <c r="D8">
-        <v>2.520836925417136</v>
+        <v>5.41423897861277</v>
       </c>
       <c r="E8">
-        <v>29.70944356242556</v>
+        <v>7.568742548021016</v>
       </c>
       <c r="F8">
-        <v>31.75851813706882</v>
+        <v>23.57031006764575</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>16.76984160805725</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>5.709264892217206</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>10.75201508941845</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>6.912714560014035</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>10.56843495663397</v>
+        <v>13.36795109021558</v>
       </c>
       <c r="O8">
-        <v>24.35563300273559</v>
+        <v>17.57175050133218</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,40 +708,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>30.99171174199885</v>
+        <v>15.36625053762376</v>
       </c>
       <c r="C9">
-        <v>23.34630756594032</v>
+        <v>6.593022718005233</v>
       </c>
       <c r="D9">
-        <v>2.241063159625241</v>
+        <v>5.844359563538382</v>
       </c>
       <c r="E9">
-        <v>35.24940727988513</v>
+        <v>7.71067710384875</v>
       </c>
       <c r="F9">
-        <v>36.6519081055926</v>
+        <v>24.00328029503128</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>16.51878423584127</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>5.620784691750191</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>12.3349290496576</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>7.242253520275987</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>9.766843716740206</v>
+        <v>12.91729874281011</v>
       </c>
       <c r="O9">
-        <v>27.82568774458661</v>
+        <v>17.55638079798308</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,40 +749,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>34.0943414237137</v>
+        <v>16.69187314481551</v>
       </c>
       <c r="C10">
-        <v>25.65191664578493</v>
+        <v>6.901197822370521</v>
       </c>
       <c r="D10">
-        <v>2.055754428896323</v>
+        <v>6.149838453064381</v>
       </c>
       <c r="E10">
-        <v>39.14236343095659</v>
+        <v>7.828314781974993</v>
       </c>
       <c r="F10">
-        <v>40.45099970941862</v>
+        <v>24.40428700076404</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>16.3887696521401</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>5.561704595660268</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>13.38207112471343</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>7.487801595203601</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>9.173703547590742</v>
+        <v>12.59781262715313</v>
       </c>
       <c r="O10">
-        <v>30.78260778442706</v>
+        <v>17.60918855173883</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,40 +790,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>35.46015749754098</v>
+        <v>17.28797265193808</v>
       </c>
       <c r="C11">
-        <v>26.66945710052521</v>
+        <v>7.037120214972667</v>
       </c>
       <c r="D11">
-        <v>1.979373457655978</v>
+        <v>6.285947703369163</v>
       </c>
       <c r="E11">
-        <v>40.89230276463135</v>
+        <v>7.884696785166343</v>
       </c>
       <c r="F11">
-        <v>42.1625689173872</v>
+        <v>24.60543660978117</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>16.34264487054838</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>5.536122733065087</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>13.83355558288987</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>7.599857835089978</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>8.900878368649852</v>
+        <v>12.45471304008956</v>
       </c>
       <c r="O11">
-        <v>32.11560914476934</v>
+        <v>17.64835020354665</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,40 +831,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>35.97154511000324</v>
+        <v>17.5088857373692</v>
       </c>
       <c r="C12">
-        <v>27.0508874938615</v>
+        <v>7.08795903025396</v>
       </c>
       <c r="D12">
-        <v>1.952064291201312</v>
+        <v>6.337037600220152</v>
       </c>
       <c r="E12">
-        <v>41.55379508545225</v>
+        <v>7.90645541058873</v>
       </c>
       <c r="F12">
-        <v>42.80938569027225</v>
+        <v>24.68434860284649</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>16.32715551608416</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>5.526622608280236</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>14.0009708932076</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>7.642310732193194</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>8.796933789988657</v>
+        <v>12.40082265725531</v>
       </c>
       <c r="O12">
-        <v>32.61954925202583</v>
+        <v>17.66545569433196</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,40 +872,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>35.86165408070271</v>
+        <v>17.4615216407901</v>
       </c>
       <c r="C13">
-        <v>26.96890159560473</v>
+        <v>7.077038346573492</v>
       </c>
       <c r="D13">
-        <v>1.957864318483942</v>
+        <v>6.326055168269971</v>
       </c>
       <c r="E13">
-        <v>41.41134901815875</v>
+        <v>7.901751231799752</v>
       </c>
       <c r="F13">
-        <v>42.67012034890724</v>
+        <v>24.66723089010519</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>16.33040177851209</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>5.528660286213991</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>13.96507257841886</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>7.633167346819654</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>8.819351681231034</v>
+        <v>12.41241603125021</v>
       </c>
       <c r="O13">
-        <v>32.51103706820241</v>
+        <v>17.6616689397004</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,40 +913,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>35.50234151946123</v>
+        <v>17.30624357500137</v>
       </c>
       <c r="C14">
-        <v>26.70091163679629</v>
+        <v>7.041315514496397</v>
       </c>
       <c r="D14">
-        <v>1.977090938395676</v>
+        <v>6.290160170701545</v>
       </c>
       <c r="E14">
-        <v>40.94673553745979</v>
+        <v>7.886478730889118</v>
       </c>
       <c r="F14">
-        <v>42.21580209140448</v>
+        <v>24.61187356117912</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>16.3413303121677</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>5.535337393951837</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>13.84739998279375</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>7.603350239848744</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>8.892340685853165</v>
+        <v>12.45027360470288</v>
       </c>
       <c r="O14">
-        <v>32.15707938092351</v>
+        <v>17.64971130902103</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,40 +954,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>35.28151891113937</v>
+        <v>17.21050535742433</v>
       </c>
       <c r="C15">
-        <v>26.53627363633691</v>
+        <v>7.019351453665708</v>
       </c>
       <c r="D15">
-        <v>1.989095470181601</v>
+        <v>6.268113486349725</v>
       </c>
       <c r="E15">
-        <v>40.66205569398883</v>
+        <v>7.877176874679209</v>
       </c>
       <c r="F15">
-        <v>41.93738450336761</v>
+        <v>24.57832387144697</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>16.34828501664976</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>5.539451726169724</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>13.77486029477994</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>7.585088059092151</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>8.936959910738585</v>
+        <v>12.47350060058482</v>
       </c>
       <c r="O15">
-        <v>31.94019172605647</v>
+        <v>17.64268621123387</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,40 +995,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>34.00422482851077</v>
+        <v>16.65224007333565</v>
       </c>
       <c r="C16">
-        <v>25.58483772554836</v>
+        <v>6.89222744578089</v>
       </c>
       <c r="D16">
-        <v>2.060941952314101</v>
+        <v>6.14088230648882</v>
       </c>
       <c r="E16">
-        <v>39.02772715230136</v>
+        <v>7.82468743022164</v>
       </c>
       <c r="F16">
-        <v>40.33889507742277</v>
+        <v>24.39152250607698</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>16.39205487294593</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>5.563402558565954</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>13.35206713283455</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>7.480482869875697</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>9.191456417516591</v>
+        <v>12.60720756260037</v>
       </c>
       <c r="O16">
-        <v>30.69532122560388</v>
+        <v>17.6069423536591</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,40 +1036,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>33.20945431852943</v>
+        <v>16.30113371956806</v>
       </c>
       <c r="C17">
-        <v>24.99354543756714</v>
+        <v>6.813133700041088</v>
       </c>
       <c r="D17">
-        <v>2.107328281757769</v>
+        <v>6.0620679486434</v>
       </c>
       <c r="E17">
-        <v>38.02093540014827</v>
+        <v>7.793218441220164</v>
       </c>
       <c r="F17">
-        <v>39.35468591854956</v>
+        <v>24.28175893245156</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>16.42231418136329</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>5.578427762976375</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>13.08634423089306</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>7.416378946834944</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>9.346678799952695</v>
+        <v>12.68978906767973</v>
       </c>
       <c r="O17">
-        <v>29.92910244873175</v>
+        <v>17.58896275846644</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,40 +1077,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>32.74798138315905</v>
+        <v>16.09600105065126</v>
       </c>
       <c r="C18">
-        <v>24.65046166477457</v>
+        <v>6.767240212103758</v>
       </c>
       <c r="D18">
-        <v>2.134715947297309</v>
+        <v>6.016469447574562</v>
       </c>
       <c r="E18">
-        <v>37.43974897742915</v>
+        <v>7.775388567924021</v>
       </c>
       <c r="F18">
-        <v>38.78694679129991</v>
+        <v>24.22038631398053</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>16.44093745381363</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>5.587191581541813</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>12.93116532575147</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>7.379543262015526</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>9.435689430831292</v>
+        <v>12.73749971663459</v>
       </c>
       <c r="O18">
-        <v>29.48718659866718</v>
+        <v>17.58004047853838</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,40 +1118,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>32.59096851383709</v>
+        <v>16.02958857856464</v>
       </c>
       <c r="C19">
-        <v>24.53376949521576</v>
+        <v>6.751633233492542</v>
       </c>
       <c r="D19">
-        <v>2.144098850598891</v>
+        <v>6.000986138077065</v>
       </c>
       <c r="E19">
-        <v>37.24255760121243</v>
+        <v>7.769398222608497</v>
       </c>
       <c r="F19">
-        <v>38.59440877441601</v>
+        <v>24.19990741076219</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>16.44744919646544</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>5.590179734492907</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>12.8782214895581</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>7.367078367775129</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>9.46578632820825</v>
+        <v>12.75369081315769</v>
       </c>
       <c r="O19">
-        <v>29.33733030908551</v>
+        <v>17.57726025449644</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,40 +1159,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>33.29450345809296</v>
+        <v>16.33883896025238</v>
       </c>
       <c r="C20">
-        <v>25.05679472685417</v>
+        <v>6.821594995263007</v>
       </c>
       <c r="D20">
-        <v>2.102314292436687</v>
+        <v>6.070485775592814</v>
       </c>
       <c r="E20">
-        <v>38.12831601671286</v>
+        <v>7.7965404287846</v>
       </c>
       <c r="F20">
-        <v>39.45962033403899</v>
+        <v>24.29326088382452</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>16.41896612632825</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>5.576815699518072</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>13.11487312748824</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>7.423199510404448</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>9.330184333742666</v>
+        <v>12.68097635367091</v>
       </c>
       <c r="O20">
-        <v>30.01078685695639</v>
+        <v>17.59072912593527</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,40 +1200,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>35.6080316227611</v>
+        <v>17.3519828642876</v>
       </c>
       <c r="C21">
-        <v>26.77972688346152</v>
+        <v>7.051825458345191</v>
       </c>
       <c r="D21">
-        <v>1.971395035496864</v>
+        <v>6.30071596387898</v>
       </c>
       <c r="E21">
-        <v>41.0832187647998</v>
+        <v>7.890953599792735</v>
       </c>
       <c r="F21">
-        <v>42.34927206218633</v>
+        <v>24.62805861002278</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>16.33806582210928</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>5.533371076124903</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>13.88205947383788</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>7.612107954563936</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>8.87092091578983</v>
+        <v>12.43914601287955</v>
       </c>
       <c r="O21">
-        <v>32.26105970534467</v>
+        <v>17.6531610069855</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,40 +1241,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>37.08660111944756</v>
+        <v>17.98607685570237</v>
       </c>
       <c r="C22">
-        <v>27.88346773326441</v>
+        <v>7.198604282435861</v>
       </c>
       <c r="D22">
-        <v>1.976100158228065</v>
+        <v>6.448536237476839</v>
       </c>
       <c r="E22">
-        <v>43.00877698961965</v>
+        <v>7.955033744409961</v>
       </c>
       <c r="F22">
-        <v>44.23087493108417</v>
+        <v>24.8628630180923</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>16.29676848646469</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>5.506069122043571</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>14.36276921520201</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>7.735671889880654</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>8.566971105738947</v>
+        <v>12.2828230467716</v>
       </c>
       <c r="O22">
-        <v>33.72745697458153</v>
+        <v>17.70727421225137</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,40 +1282,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>36.30023903157068</v>
+        <v>17.65020045639326</v>
       </c>
       <c r="C23">
-        <v>27.29618480808915</v>
+        <v>7.120608457140344</v>
       </c>
       <c r="D23">
-        <v>1.934954586743882</v>
+        <v>6.369896390324939</v>
       </c>
       <c r="E23">
-        <v>41.98085952144674</v>
+        <v>7.920617173583581</v>
       </c>
       <c r="F23">
-        <v>43.22682720440768</v>
+        <v>24.73606571175372</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>16.31771472868703</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>5.520540395010257</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>14.10808996009302</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>7.669724063363895</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>8.729615389449163</v>
+        <v>12.36610554191124</v>
       </c>
       <c r="O23">
-        <v>32.94484179048786</v>
+        <v>17.67714268495707</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,40 +1323,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>33.25606696435625</v>
+        <v>16.32180263133742</v>
       </c>
       <c r="C24">
-        <v>25.02820955404553</v>
+        <v>6.817770954954862</v>
       </c>
       <c r="D24">
-        <v>2.104578908941358</v>
+        <v>6.066680967023051</v>
       </c>
       <c r="E24">
-        <v>38.07977675069837</v>
+        <v>7.795037741592379</v>
       </c>
       <c r="F24">
-        <v>39.41218549333145</v>
+        <v>24.28805546073582</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>16.42047596871689</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>5.577544122184126</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>13.10198272565301</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>7.420115873535855</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>9.337642179774345</v>
+        <v>12.68495985281298</v>
       </c>
       <c r="O24">
-        <v>29.97386178192112</v>
+        <v>17.58992615307119</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,40 +1364,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>29.80448523427725</v>
+        <v>14.87034262134272</v>
       </c>
       <c r="C25">
-        <v>22.46603372366442</v>
+        <v>6.47589130660201</v>
       </c>
       <c r="D25">
-        <v>2.314045899764076</v>
+        <v>5.729636612517493</v>
       </c>
       <c r="E25">
-        <v>33.7868908280133</v>
+        <v>7.669924419299277</v>
       </c>
       <c r="F25">
-        <v>35.28436729733546</v>
+        <v>23.87185669724199</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>16.57753441042748</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>5.64368258185966</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>11.92712322470063</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>7.152361684568569</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>9.983800073976077</v>
+        <v>13.03708371343051</v>
       </c>
       <c r="O25">
-        <v>26.85501378206118</v>
+        <v>17.54969531405612</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_34/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_34/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.73148204886056</v>
+        <v>13.99924139758967</v>
       </c>
       <c r="C2">
-        <v>6.211892273758283</v>
+        <v>6.36166412509978</v>
       </c>
       <c r="D2">
-        <v>5.474644641227207</v>
+        <v>8.045919013763262</v>
       </c>
       <c r="E2">
-        <v>7.586799925494973</v>
+        <v>12.61410445800567</v>
       </c>
       <c r="F2">
-        <v>23.62084792259019</v>
+        <v>36.23237742641413</v>
       </c>
       <c r="I2">
-        <v>16.72927630909363</v>
+        <v>27.12140291937802</v>
       </c>
       <c r="J2">
-        <v>5.696356663081655</v>
+        <v>9.893607410861655</v>
       </c>
       <c r="K2">
-        <v>10.98419052496533</v>
+        <v>11.2597383138669</v>
       </c>
       <c r="L2">
-        <v>6.957696194778501</v>
+        <v>11.15898360159018</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>13.30424656827624</v>
+        <v>20.53014082243471</v>
       </c>
       <c r="O2">
-        <v>17.56266330424982</v>
+        <v>27.93921226684197</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,40 +462,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.90892155076917</v>
+        <v>13.80182180899685</v>
       </c>
       <c r="C3">
-        <v>6.025853962922422</v>
+        <v>6.29821215188395</v>
       </c>
       <c r="D3">
-        <v>5.298638970452103</v>
+        <v>8.029415387163716</v>
       </c>
       <c r="E3">
-        <v>7.536103991323968</v>
+        <v>12.63012674708924</v>
       </c>
       <c r="F3">
-        <v>23.48397315665351</v>
+        <v>36.31096809774383</v>
       </c>
       <c r="I3">
-        <v>16.8529138538608</v>
+        <v>27.20787815117196</v>
       </c>
       <c r="J3">
-        <v>5.734527150380103</v>
+        <v>9.911393326257361</v>
       </c>
       <c r="K3">
-        <v>10.29630561424791</v>
+        <v>11.12130971306549</v>
       </c>
       <c r="L3">
-        <v>6.827966794311374</v>
+        <v>11.15848792935484</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>13.49062897756273</v>
+        <v>20.58736145625731</v>
       </c>
       <c r="O3">
-        <v>17.59612945678225</v>
+        <v>28.01810763834343</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,40 +503,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.37954676894977</v>
+        <v>13.68148359534495</v>
       </c>
       <c r="C4">
-        <v>5.908328441796232</v>
+        <v>6.258371957166721</v>
       </c>
       <c r="D4">
-        <v>5.189404029321663</v>
+        <v>8.020352362113471</v>
       </c>
       <c r="E4">
-        <v>7.507758629386227</v>
+        <v>12.64144690360771</v>
       </c>
       <c r="F4">
-        <v>23.41581174317582</v>
+        <v>36.36595609200809</v>
       </c>
       <c r="I4">
-        <v>16.93854964052967</v>
+        <v>27.26507884983419</v>
       </c>
       <c r="J4">
-        <v>5.75918192312727</v>
+        <v>9.922986257986144</v>
       </c>
       <c r="K4">
-        <v>9.849818094536507</v>
+        <v>11.03714018041005</v>
       </c>
       <c r="L4">
-        <v>6.749621463920312</v>
+        <v>11.15955070620238</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>13.6078179487184</v>
+        <v>20.62416361594976</v>
       </c>
       <c r="O4">
-        <v>17.62822141022285</v>
+        <v>28.07121664278751</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,40 +544,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.15784864183486</v>
+        <v>13.63272346479588</v>
       </c>
       <c r="C5">
-        <v>5.859643832946021</v>
+        <v>6.24192256064686</v>
       </c>
       <c r="D5">
-        <v>5.144663925279843</v>
+        <v>8.016930988503375</v>
       </c>
       <c r="E5">
-        <v>7.496906754815886</v>
+        <v>12.64643330601867</v>
       </c>
       <c r="F5">
-        <v>23.39194610373188</v>
+        <v>36.39005591659568</v>
       </c>
       <c r="I5">
-        <v>16.97581485981059</v>
+        <v>27.28942094007846</v>
       </c>
       <c r="J5">
-        <v>5.769534958057005</v>
+        <v>9.927879950347625</v>
       </c>
       <c r="K5">
-        <v>9.661809905931335</v>
+        <v>11.00308519917024</v>
       </c>
       <c r="L5">
-        <v>6.718058808893964</v>
+        <v>11.16032879750206</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>13.65628184951444</v>
+        <v>20.63958154309454</v>
       </c>
       <c r="O5">
-        <v>17.64410889737525</v>
+        <v>28.09403195708304</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,40 +585,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.1206798932399</v>
+        <v>13.62464540045806</v>
       </c>
       <c r="C6">
-        <v>5.851513114483324</v>
+        <v>6.239178426502917</v>
       </c>
       <c r="D6">
-        <v>5.137223278970176</v>
+        <v>8.01637937001091</v>
       </c>
       <c r="E6">
-        <v>7.49514699631854</v>
+        <v>12.64728385996028</v>
       </c>
       <c r="F6">
-        <v>23.38821688079373</v>
+        <v>36.39415981033878</v>
       </c>
       <c r="I6">
-        <v>16.98214355971717</v>
+        <v>27.29352528300624</v>
       </c>
       <c r="J6">
-        <v>5.771272548673345</v>
+        <v>9.928702792736194</v>
       </c>
       <c r="K6">
-        <v>9.630225546378396</v>
+        <v>10.99744625574507</v>
       </c>
       <c r="L6">
-        <v>6.712840824332118</v>
+        <v>11.16047887015128</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>13.66437251901124</v>
+        <v>20.64216712565739</v>
       </c>
       <c r="O6">
-        <v>17.64691399599688</v>
+        <v>28.09789124916143</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,40 +626,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.37658084409361</v>
+        <v>13.68082479454698</v>
       </c>
       <c r="C7">
-        <v>5.907675019123175</v>
+        <v>6.258150972528319</v>
       </c>
       <c r="D7">
-        <v>5.188801471043373</v>
+        <v>8.02030511591782</v>
       </c>
       <c r="E7">
-        <v>7.507609448082113</v>
+        <v>12.64151263955447</v>
       </c>
       <c r="F7">
-        <v>23.41547416266841</v>
+        <v>36.36627426264754</v>
       </c>
       <c r="I7">
-        <v>16.93904272349233</v>
+        <v>27.26540295557485</v>
       </c>
       <c r="J7">
-        <v>5.759320308982867</v>
+        <v>9.923051569258067</v>
       </c>
       <c r="K7">
-        <v>9.847307077826759</v>
+        <v>11.0366798632096</v>
       </c>
       <c r="L7">
-        <v>6.749194280857328</v>
+        <v>11.15955980136425</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>13.60846865921936</v>
+        <v>20.62436984232017</v>
       </c>
       <c r="O7">
-        <v>17.62842442028823</v>
+        <v>28.07151958960345</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,40 +667,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.45298512463138</v>
+        <v>13.93102355975657</v>
       </c>
       <c r="C8">
-        <v>6.148451681109587</v>
+        <v>6.339972895055588</v>
       </c>
       <c r="D8">
-        <v>5.41423897861277</v>
+        <v>8.040008133825022</v>
       </c>
       <c r="E8">
-        <v>7.568742548021016</v>
+        <v>12.61932162937047</v>
       </c>
       <c r="F8">
-        <v>23.57031006764575</v>
+        <v>36.25807734114454</v>
       </c>
       <c r="I8">
-        <v>16.76984160805725</v>
+        <v>27.15036781110065</v>
       </c>
       <c r="J8">
-        <v>5.709264892217206</v>
+        <v>9.89960071057156</v>
       </c>
       <c r="K8">
-        <v>10.75201508941845</v>
+        <v>11.21185895822735</v>
       </c>
       <c r="L8">
-        <v>6.912714560014035</v>
+        <v>11.15852971036891</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>13.36795109021558</v>
+        <v>20.54952493412351</v>
       </c>
       <c r="O8">
-        <v>17.57175050133218</v>
+        <v>27.96544644021834</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,40 +708,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.36625053762376</v>
+        <v>14.42609578587104</v>
       </c>
       <c r="C9">
-        <v>6.593022718005233</v>
+        <v>6.493131670591159</v>
       </c>
       <c r="D9">
-        <v>5.844359563538382</v>
+        <v>8.08700982268876</v>
       </c>
       <c r="E9">
-        <v>7.71067710384875</v>
+        <v>12.58754101516106</v>
       </c>
       <c r="F9">
-        <v>24.00328029503128</v>
+        <v>36.09937763561175</v>
       </c>
       <c r="I9">
-        <v>16.51878423584127</v>
+        <v>26.9573421680561</v>
       </c>
       <c r="J9">
-        <v>5.620784691750191</v>
+        <v>9.858929069083125</v>
       </c>
       <c r="K9">
-        <v>12.3349290496576</v>
+        <v>11.56030456700009</v>
       </c>
       <c r="L9">
-        <v>7.242253520275987</v>
+        <v>11.16730044604774</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>12.91729874281011</v>
+        <v>20.41593708477428</v>
       </c>
       <c r="O9">
-        <v>17.55638079798308</v>
+        <v>27.79449176712521</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,40 +749,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.69187314481551</v>
+        <v>14.78917022560778</v>
       </c>
       <c r="C10">
-        <v>6.901197822370521</v>
+        <v>6.600811010714898</v>
       </c>
       <c r="D10">
-        <v>6.149838453064381</v>
+        <v>8.12645952895482</v>
       </c>
       <c r="E10">
-        <v>7.828314781974993</v>
+        <v>12.57130983079064</v>
       </c>
       <c r="F10">
-        <v>24.40428700076404</v>
+        <v>36.01543850277299</v>
       </c>
       <c r="I10">
-        <v>16.3887696521401</v>
+        <v>26.8353605413174</v>
       </c>
       <c r="J10">
-        <v>5.561704595660268</v>
+        <v>9.832261652052688</v>
       </c>
       <c r="K10">
-        <v>13.38207112471343</v>
+        <v>11.81712152375055</v>
       </c>
       <c r="L10">
-        <v>7.487801595203601</v>
+        <v>11.18024224746049</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>12.59781262715313</v>
+        <v>20.3257474441327</v>
       </c>
       <c r="O10">
-        <v>17.60918855173883</v>
+        <v>27.69151239848776</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,40 +790,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.28797265193808</v>
+        <v>14.9535079458369</v>
       </c>
       <c r="C11">
-        <v>7.037120214972667</v>
+        <v>6.648663129478511</v>
       </c>
       <c r="D11">
-        <v>6.285947703369163</v>
+        <v>8.145431851617992</v>
       </c>
       <c r="E11">
-        <v>7.884696785166343</v>
+        <v>12.56546295852039</v>
       </c>
       <c r="F11">
-        <v>24.60543660978117</v>
+        <v>35.9843508993861</v>
       </c>
       <c r="I11">
-        <v>16.34264487054838</v>
+        <v>26.7841720196388</v>
       </c>
       <c r="J11">
-        <v>5.536122733065087</v>
+        <v>9.820822272756855</v>
       </c>
       <c r="K11">
-        <v>13.83355558288987</v>
+        <v>11.93367432795187</v>
       </c>
       <c r="L11">
-        <v>7.599857835089978</v>
+        <v>11.18752162232018</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>12.45471304008956</v>
+        <v>20.28642881265336</v>
       </c>
       <c r="O11">
-        <v>17.64835020354665</v>
+        <v>27.64958219251898</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,40 +831,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.5088857373692</v>
+        <v>15.01556370951041</v>
       </c>
       <c r="C12">
-        <v>7.08795903025396</v>
+        <v>6.666614043326947</v>
       </c>
       <c r="D12">
-        <v>6.337037600220152</v>
+        <v>8.152759928950069</v>
       </c>
       <c r="E12">
-        <v>7.90645541058873</v>
+        <v>12.56346909467966</v>
       </c>
       <c r="F12">
-        <v>24.68434860284649</v>
+        <v>35.97359939923606</v>
       </c>
       <c r="I12">
-        <v>16.32715551608416</v>
+        <v>26.76540668667873</v>
       </c>
       <c r="J12">
-        <v>5.526622608280236</v>
+        <v>9.816589528473003</v>
       </c>
       <c r="K12">
-        <v>14.0009708932076</v>
+        <v>11.97773307597781</v>
       </c>
       <c r="L12">
-        <v>7.642310732193194</v>
+        <v>11.19047649041996</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>12.40082265725531</v>
+        <v>20.27178439067917</v>
       </c>
       <c r="O12">
-        <v>17.66545569433196</v>
+        <v>27.63441159304887</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,40 +872,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.4615216407901</v>
+        <v>15.00220756894028</v>
       </c>
       <c r="C13">
-        <v>7.077038346573492</v>
+        <v>6.662755645578954</v>
       </c>
       <c r="D13">
-        <v>6.326055168269971</v>
+        <v>8.151175370864024</v>
       </c>
       <c r="E13">
-        <v>7.901751231799752</v>
+        <v>12.56388872728044</v>
       </c>
       <c r="F13">
-        <v>24.66723089010519</v>
+        <v>35.97586953137492</v>
       </c>
       <c r="I13">
-        <v>16.33040177851209</v>
+        <v>26.76942062077684</v>
       </c>
       <c r="J13">
-        <v>5.528660286213991</v>
+        <v>9.817496724091654</v>
       </c>
       <c r="K13">
-        <v>13.96507257841886</v>
+        <v>11.96824826441046</v>
       </c>
       <c r="L13">
-        <v>7.633167346819654</v>
+        <v>11.18983131670954</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>12.41241603125021</v>
+        <v>20.27492746329247</v>
       </c>
       <c r="O13">
-        <v>17.6616689397004</v>
+        <v>27.63764737983432</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,40 +913,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.30624357500137</v>
+        <v>14.95861714220897</v>
       </c>
       <c r="C14">
-        <v>7.041315514496397</v>
+        <v>6.650143400711769</v>
       </c>
       <c r="D14">
-        <v>6.290160170701545</v>
+        <v>8.146031880656457</v>
       </c>
       <c r="E14">
-        <v>7.886478730889118</v>
+        <v>12.56529451315829</v>
       </c>
       <c r="F14">
-        <v>24.61187356117912</v>
+        <v>35.98344591060301</v>
       </c>
       <c r="I14">
-        <v>16.3413303121677</v>
+        <v>26.78261578520373</v>
       </c>
       <c r="J14">
-        <v>5.535337393951837</v>
+        <v>9.820472058347764</v>
       </c>
       <c r="K14">
-        <v>13.84739998279375</v>
+        <v>11.93730082934555</v>
       </c>
       <c r="L14">
-        <v>7.603350239848744</v>
+        <v>11.18776075732541</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>12.45027360470288</v>
+        <v>20.2852191093982</v>
       </c>
       <c r="O14">
-        <v>17.64971130902103</v>
+        <v>27.64831991644414</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,40 +954,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.21050535742433</v>
+        <v>14.93189226543245</v>
       </c>
       <c r="C15">
-        <v>7.019351453665708</v>
+        <v>6.642395742408075</v>
       </c>
       <c r="D15">
-        <v>6.268113486349725</v>
+        <v>8.142899935161187</v>
       </c>
       <c r="E15">
-        <v>7.877176874679209</v>
+        <v>12.56618425320826</v>
       </c>
       <c r="F15">
-        <v>24.57832387144697</v>
+        <v>35.98821958759667</v>
       </c>
       <c r="I15">
-        <v>16.34828501664976</v>
+        <v>26.79077877364109</v>
       </c>
       <c r="J15">
-        <v>5.539451726169724</v>
+        <v>9.822307431244157</v>
       </c>
       <c r="K15">
-        <v>13.77486029477994</v>
+        <v>11.91833346353739</v>
       </c>
       <c r="L15">
-        <v>7.585088059092151</v>
+        <v>11.18651825110405</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>12.47350060058482</v>
+        <v>20.29155487402124</v>
       </c>
       <c r="O15">
-        <v>17.64268621123387</v>
+        <v>27.6549493019847</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,40 +995,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.65224007333565</v>
+        <v>14.77840886285252</v>
       </c>
       <c r="C16">
-        <v>6.89222744578089</v>
+        <v>6.597660394053283</v>
       </c>
       <c r="D16">
-        <v>6.14088230648882</v>
+        <v>8.125239965374215</v>
       </c>
       <c r="E16">
-        <v>7.82468743022164</v>
+        <v>12.57172279697076</v>
       </c>
       <c r="F16">
-        <v>24.39152250607698</v>
+        <v>36.0176129792414</v>
       </c>
       <c r="I16">
-        <v>16.39205487294593</v>
+        <v>26.83879239742099</v>
       </c>
       <c r="J16">
-        <v>5.563402558565954</v>
+        <v>9.833023130348135</v>
       </c>
       <c r="K16">
-        <v>13.35206713283455</v>
+        <v>11.80949574802274</v>
       </c>
       <c r="L16">
-        <v>7.480482869875697</v>
+        <v>11.17979437951198</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>12.60720756260037</v>
+        <v>20.32835130830485</v>
       </c>
       <c r="O16">
-        <v>17.6069423536591</v>
+        <v>27.69435160373761</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,40 +1036,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.30113371956806</v>
+        <v>14.68399926080079</v>
       </c>
       <c r="C17">
-        <v>6.813133700041088</v>
+        <v>6.569921865461087</v>
       </c>
       <c r="D17">
-        <v>6.0620679486434</v>
+        <v>8.114666297803609</v>
       </c>
       <c r="E17">
-        <v>7.793218441220164</v>
+        <v>12.57551358774886</v>
       </c>
       <c r="F17">
-        <v>24.28175893245156</v>
+        <v>36.03746275569885</v>
       </c>
       <c r="I17">
-        <v>16.42231418136329</v>
+        <v>26.8693489923385</v>
       </c>
       <c r="J17">
-        <v>5.578427762976375</v>
+        <v>9.839773774186011</v>
       </c>
       <c r="K17">
-        <v>13.08634423089306</v>
+        <v>11.74262984626279</v>
       </c>
       <c r="L17">
-        <v>7.416378946834944</v>
+        <v>11.1760247636686</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>12.68978906767973</v>
+        <v>20.35136169952443</v>
       </c>
       <c r="O17">
-        <v>17.58896275846644</v>
+        <v>27.71978309667501</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,40 +1077,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.09600105065126</v>
+        <v>14.62962281444263</v>
       </c>
       <c r="C18">
-        <v>6.767240212103758</v>
+        <v>6.553861272011765</v>
       </c>
       <c r="D18">
-        <v>6.016469447574562</v>
+        <v>8.108681464106811</v>
       </c>
       <c r="E18">
-        <v>7.775388567924021</v>
+        <v>12.57783864752935</v>
       </c>
       <c r="F18">
-        <v>24.22038631398053</v>
+        <v>36.04954780730773</v>
       </c>
       <c r="I18">
-        <v>16.44093745381363</v>
+        <v>26.88732921228944</v>
       </c>
       <c r="J18">
-        <v>5.587191581541813</v>
+        <v>9.843721700070551</v>
       </c>
       <c r="K18">
-        <v>12.93116532575147</v>
+        <v>11.70414671730715</v>
       </c>
       <c r="L18">
-        <v>7.379543262015526</v>
+        <v>11.17398772759187</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>12.73749971663459</v>
+        <v>20.36475759896237</v>
       </c>
       <c r="O18">
-        <v>17.58004047853838</v>
+        <v>27.73487326909864</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,40 +1118,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.02958857856464</v>
+        <v>14.61120083330232</v>
       </c>
       <c r="C19">
-        <v>6.751633233492542</v>
+        <v>6.548405417370594</v>
       </c>
       <c r="D19">
-        <v>6.000986138077065</v>
+        <v>8.106671855306342</v>
       </c>
       <c r="E19">
-        <v>7.769398222608497</v>
+        <v>12.57865074732861</v>
       </c>
       <c r="F19">
-        <v>24.19990741076219</v>
+        <v>36.05375431409659</v>
       </c>
       <c r="I19">
-        <v>16.44744919646544</v>
+        <v>26.8934865406277</v>
       </c>
       <c r="J19">
-        <v>5.590179734492907</v>
+        <v>9.845069598247321</v>
       </c>
       <c r="K19">
-        <v>12.8782214895581</v>
+        <v>11.69111409903752</v>
       </c>
       <c r="L19">
-        <v>7.367078367775129</v>
+        <v>11.17332060155973</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>12.75369081315769</v>
+        <v>20.36932089331901</v>
       </c>
       <c r="O19">
-        <v>17.57726025449644</v>
+        <v>27.74006198349525</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,40 +1159,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.33883896025238</v>
+        <v>14.69405745391417</v>
       </c>
       <c r="C20">
-        <v>6.821594995263007</v>
+        <v>6.572885713388599</v>
       </c>
       <c r="D20">
-        <v>6.070485775592814</v>
+        <v>8.115781886088643</v>
       </c>
       <c r="E20">
-        <v>7.7965404287846</v>
+        <v>12.57509508140081</v>
       </c>
       <c r="F20">
-        <v>24.29326088382452</v>
+        <v>36.03528057671355</v>
       </c>
       <c r="I20">
-        <v>16.41896612632825</v>
+        <v>26.86605428694789</v>
       </c>
       <c r="J20">
-        <v>5.576815699518072</v>
+        <v>9.839048418214176</v>
       </c>
       <c r="K20">
-        <v>13.11487312748824</v>
+        <v>11.74975055807834</v>
       </c>
       <c r="L20">
-        <v>7.423199510404448</v>
+        <v>11.17641248555044</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>12.68097635367091</v>
+        <v>20.34889555615381</v>
       </c>
       <c r="O20">
-        <v>17.59072912593527</v>
+        <v>27.71702798370515</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,40 +1200,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.3519828642876</v>
+        <v>14.97142590725889</v>
       </c>
       <c r="C21">
-        <v>7.051825458345191</v>
+        <v>6.653852580864802</v>
       </c>
       <c r="D21">
-        <v>6.30071596387898</v>
+        <v>8.147538781344872</v>
       </c>
       <c r="E21">
-        <v>7.890953599792735</v>
+        <v>12.56487562939763</v>
       </c>
       <c r="F21">
-        <v>24.62805861002278</v>
+        <v>35.98119284280457</v>
       </c>
       <c r="I21">
-        <v>16.33806582210928</v>
+        <v>26.77872325483299</v>
       </c>
       <c r="J21">
-        <v>5.533371076124903</v>
+        <v>9.819595443961436</v>
       </c>
       <c r="K21">
-        <v>13.88205947383788</v>
+        <v>11.94639323473145</v>
       </c>
       <c r="L21">
-        <v>7.612107954563936</v>
+        <v>11.1883635635722</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>12.43914601287955</v>
+        <v>20.2821895711436</v>
       </c>
       <c r="O21">
-        <v>17.6531610069855</v>
+        <v>27.64516592905897</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,40 +1241,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.98607685570237</v>
+        <v>15.15165525765901</v>
       </c>
       <c r="C22">
-        <v>7.198604282435861</v>
+        <v>6.70577723186904</v>
       </c>
       <c r="D22">
-        <v>6.448536237476839</v>
+        <v>8.169129237766279</v>
       </c>
       <c r="E22">
-        <v>7.955033744409961</v>
+        <v>12.55947984903771</v>
       </c>
       <c r="F22">
-        <v>24.8628630180923</v>
+        <v>35.95179267687937</v>
       </c>
       <c r="I22">
-        <v>16.29676848646469</v>
+        <v>26.72525338307703</v>
       </c>
       <c r="J22">
-        <v>5.506069122043571</v>
+        <v>9.807459262639705</v>
       </c>
       <c r="K22">
-        <v>14.36276921520201</v>
+        <v>12.07444338213864</v>
       </c>
       <c r="L22">
-        <v>7.735671889880654</v>
+        <v>11.19732934977714</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>12.2828230467716</v>
+        <v>20.24001910613137</v>
       </c>
       <c r="O22">
-        <v>17.70727421225137</v>
+        <v>27.60232376598799</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,40 +1282,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.65020045639326</v>
+        <v>15.0555774181768</v>
       </c>
       <c r="C23">
-        <v>7.120608457140344</v>
+        <v>6.678157052358767</v>
       </c>
       <c r="D23">
-        <v>6.369896390324939</v>
+        <v>8.157530896347572</v>
       </c>
       <c r="E23">
-        <v>7.920617173583581</v>
+        <v>12.56224252841806</v>
       </c>
       <c r="F23">
-        <v>24.73606571175372</v>
+        <v>35.96693975284306</v>
       </c>
       <c r="I23">
-        <v>16.31771472868703</v>
+        <v>26.7534612785815</v>
       </c>
       <c r="J23">
-        <v>5.520540395010257</v>
+        <v>9.813883855887173</v>
       </c>
       <c r="K23">
-        <v>14.10808996009302</v>
+        <v>12.00615559000906</v>
       </c>
       <c r="L23">
-        <v>7.669724063363895</v>
+        <v>11.1924390920511</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>12.36610554191124</v>
+        <v>20.26239617267886</v>
       </c>
       <c r="O23">
-        <v>17.67714268495707</v>
+        <v>27.62481192294641</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,40 +1323,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.32180263133742</v>
+        <v>14.6895104491811</v>
       </c>
       <c r="C24">
-        <v>6.817770954954862</v>
+        <v>6.571546110272412</v>
       </c>
       <c r="D24">
-        <v>6.066680967023051</v>
+        <v>8.115277235201658</v>
       </c>
       <c r="E24">
-        <v>7.795037741592379</v>
+        <v>12.57528383428258</v>
       </c>
       <c r="F24">
-        <v>24.28805546073582</v>
+        <v>36.03626504304081</v>
       </c>
       <c r="I24">
-        <v>16.42047596871689</v>
+        <v>26.86754253733255</v>
       </c>
       <c r="J24">
-        <v>5.577544122184126</v>
+        <v>9.839376143263099</v>
       </c>
       <c r="K24">
-        <v>13.10198272565301</v>
+        <v>11.74653140917477</v>
       </c>
       <c r="L24">
-        <v>7.420115873535855</v>
+        <v>11.1762367908992</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>12.68495985281298</v>
+        <v>20.3500099795412</v>
       </c>
       <c r="O24">
-        <v>17.58992615307119</v>
+        <v>27.71827210858228</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,40 +1364,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.87034262134272</v>
+        <v>14.29204114661066</v>
       </c>
       <c r="C25">
-        <v>6.47589130660201</v>
+        <v>6.452520881846002</v>
       </c>
       <c r="D25">
-        <v>5.729636612517493</v>
+        <v>8.073417207532547</v>
       </c>
       <c r="E25">
-        <v>7.669924419299277</v>
+        <v>12.59488571269647</v>
       </c>
       <c r="F25">
-        <v>23.87185669724199</v>
+        <v>36.13657824024566</v>
       </c>
       <c r="I25">
-        <v>16.57753441042748</v>
+        <v>27.00607662572158</v>
       </c>
       <c r="J25">
-        <v>5.64368258185966</v>
+        <v>9.869365514692822</v>
       </c>
       <c r="K25">
-        <v>11.92712322470063</v>
+        <v>11.46574080582468</v>
       </c>
       <c r="L25">
-        <v>7.152361684568569</v>
+        <v>11.1637803882916</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>13.03708371343051</v>
+        <v>20.45067305953399</v>
       </c>
       <c r="O25">
-        <v>17.54969531405612</v>
+        <v>27.83676911625564</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_34/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_34/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.99924139758967</v>
+        <v>13.73148204886056</v>
       </c>
       <c r="C2">
-        <v>6.36166412509978</v>
+        <v>6.211892273758264</v>
       </c>
       <c r="D2">
-        <v>8.045919013763262</v>
+        <v>5.474644641227174</v>
       </c>
       <c r="E2">
-        <v>12.61410445800567</v>
+        <v>7.586799925495025</v>
       </c>
       <c r="F2">
-        <v>36.23237742641413</v>
+        <v>23.62084792259001</v>
       </c>
       <c r="I2">
-        <v>27.12140291937802</v>
+        <v>16.72927630909352</v>
       </c>
       <c r="J2">
-        <v>9.893607410861655</v>
+        <v>5.696356663081685</v>
       </c>
       <c r="K2">
-        <v>11.2597383138669</v>
+        <v>10.98419052496535</v>
       </c>
       <c r="L2">
-        <v>11.15898360159018</v>
+        <v>6.957696194778524</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>20.53014082243471</v>
+        <v>13.30424656827617</v>
       </c>
       <c r="O2">
-        <v>27.93921226684197</v>
+        <v>17.5626633042497</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,40 +462,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.80182180899685</v>
+        <v>12.90892155076919</v>
       </c>
       <c r="C3">
-        <v>6.29821215188395</v>
+        <v>6.025853962922414</v>
       </c>
       <c r="D3">
-        <v>8.029415387163716</v>
+        <v>5.298638970452102</v>
       </c>
       <c r="E3">
-        <v>12.63012674708924</v>
+        <v>7.536103991323973</v>
       </c>
       <c r="F3">
-        <v>36.31096809774383</v>
+        <v>23.48397315665352</v>
       </c>
       <c r="I3">
-        <v>27.20787815117196</v>
+        <v>16.85291385386082</v>
       </c>
       <c r="J3">
-        <v>9.911393326257361</v>
+        <v>5.734527150380107</v>
       </c>
       <c r="K3">
-        <v>11.12130971306549</v>
+        <v>10.29630561424791</v>
       </c>
       <c r="L3">
-        <v>11.15848792935484</v>
+        <v>6.827966794311369</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>20.58736145625731</v>
+        <v>13.49062897756273</v>
       </c>
       <c r="O3">
-        <v>28.01810763834343</v>
+        <v>17.59612945678226</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,40 +503,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.68148359534495</v>
+        <v>12.37954676894976</v>
       </c>
       <c r="C4">
-        <v>6.258371957166721</v>
+        <v>5.908328441795969</v>
       </c>
       <c r="D4">
-        <v>8.020352362113471</v>
+        <v>5.189404029321801</v>
       </c>
       <c r="E4">
-        <v>12.64144690360771</v>
+        <v>7.507758629386228</v>
       </c>
       <c r="F4">
-        <v>36.36595609200809</v>
+        <v>23.41581174317578</v>
       </c>
       <c r="I4">
-        <v>27.26507884983419</v>
+        <v>16.93854964052948</v>
       </c>
       <c r="J4">
-        <v>9.922986257986144</v>
+        <v>5.759181923127174</v>
       </c>
       <c r="K4">
-        <v>11.03714018041005</v>
+        <v>9.849818094536525</v>
       </c>
       <c r="L4">
-        <v>11.15955070620238</v>
+        <v>6.749621463920379</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>20.62416361594976</v>
+        <v>13.6078179487183</v>
       </c>
       <c r="O4">
-        <v>28.07121664278751</v>
+        <v>17.62822141022272</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,40 +544,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.63272346479588</v>
+        <v>12.15784864183487</v>
       </c>
       <c r="C5">
-        <v>6.24192256064686</v>
+        <v>5.859643832946011</v>
       </c>
       <c r="D5">
-        <v>8.016930988503375</v>
+        <v>5.14466392527978</v>
       </c>
       <c r="E5">
-        <v>12.64643330601867</v>
+        <v>7.496906754815881</v>
       </c>
       <c r="F5">
-        <v>36.39005591659568</v>
+        <v>23.39194610373183</v>
       </c>
       <c r="I5">
-        <v>27.28942094007846</v>
+        <v>16.97581485981053</v>
       </c>
       <c r="J5">
-        <v>9.927879950347625</v>
+        <v>5.769534958057041</v>
       </c>
       <c r="K5">
-        <v>11.00308519917024</v>
+        <v>9.66180990593134</v>
       </c>
       <c r="L5">
-        <v>11.16032879750206</v>
+        <v>6.718058808893962</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>20.63958154309454</v>
+        <v>13.6562818495144</v>
       </c>
       <c r="O5">
-        <v>28.09403195708304</v>
+        <v>17.64410889737519</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,40 +585,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.62464540045806</v>
+        <v>12.12067989323989</v>
       </c>
       <c r="C6">
-        <v>6.239178426502917</v>
+        <v>5.851513114483323</v>
       </c>
       <c r="D6">
-        <v>8.01637937001091</v>
+        <v>5.137223278970106</v>
       </c>
       <c r="E6">
-        <v>12.64728385996028</v>
+        <v>7.495146996318551</v>
       </c>
       <c r="F6">
-        <v>36.39415981033878</v>
+        <v>23.38821688079362</v>
       </c>
       <c r="I6">
-        <v>27.29352528300624</v>
+        <v>16.98214355971711</v>
       </c>
       <c r="J6">
-        <v>9.928702792736194</v>
+        <v>5.771272548673347</v>
       </c>
       <c r="K6">
-        <v>10.99744625574507</v>
+        <v>9.630225546378425</v>
       </c>
       <c r="L6">
-        <v>11.16047887015128</v>
+        <v>6.712840824332095</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>20.64216712565739</v>
+        <v>13.66437251901124</v>
       </c>
       <c r="O6">
-        <v>28.09789124916143</v>
+        <v>17.64691399599682</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,40 +626,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.68082479454698</v>
+        <v>12.37658084409359</v>
       </c>
       <c r="C7">
-        <v>6.258150972528319</v>
+        <v>5.90767501912295</v>
       </c>
       <c r="D7">
-        <v>8.02030511591782</v>
+        <v>5.188801471043373</v>
       </c>
       <c r="E7">
-        <v>12.64151263955447</v>
+        <v>7.507609448082054</v>
       </c>
       <c r="F7">
-        <v>36.36627426264754</v>
+        <v>23.41547416266841</v>
       </c>
       <c r="I7">
-        <v>27.26540295557485</v>
+        <v>16.93904272349231</v>
       </c>
       <c r="J7">
-        <v>9.923051569258067</v>
+        <v>5.759320308982834</v>
       </c>
       <c r="K7">
-        <v>11.0366798632096</v>
+        <v>9.847307077826731</v>
       </c>
       <c r="L7">
-        <v>11.15955980136425</v>
+        <v>6.749194280857323</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>20.62436984232017</v>
+        <v>13.60846865921932</v>
       </c>
       <c r="O7">
-        <v>28.07151958960345</v>
+        <v>17.62842442028823</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,40 +667,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.93102355975657</v>
+        <v>13.45298512463135</v>
       </c>
       <c r="C8">
-        <v>6.339972895055588</v>
+        <v>6.148451681109806</v>
       </c>
       <c r="D8">
-        <v>8.040008133825022</v>
+        <v>5.414238978612886</v>
       </c>
       <c r="E8">
-        <v>12.61932162937047</v>
+        <v>7.568742548021184</v>
       </c>
       <c r="F8">
-        <v>36.25807734114454</v>
+        <v>23.57031006764559</v>
       </c>
       <c r="I8">
-        <v>27.15036781110065</v>
+        <v>16.76984160805714</v>
       </c>
       <c r="J8">
-        <v>9.89960071057156</v>
+        <v>5.709264892217274</v>
       </c>
       <c r="K8">
-        <v>11.21185895822735</v>
+        <v>10.75201508941854</v>
       </c>
       <c r="L8">
-        <v>11.15852971036891</v>
+        <v>6.912714560014069</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>20.54952493412351</v>
+        <v>13.36795109021548</v>
       </c>
       <c r="O8">
-        <v>27.96544644021834</v>
+        <v>17.57175050133196</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,40 +708,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.42609578587104</v>
+        <v>15.36625053762382</v>
       </c>
       <c r="C9">
-        <v>6.493131670591159</v>
+        <v>6.59302271800541</v>
       </c>
       <c r="D9">
-        <v>8.08700982268876</v>
+        <v>5.844359563538325</v>
       </c>
       <c r="E9">
-        <v>12.58754101516106</v>
+        <v>7.710677103848758</v>
       </c>
       <c r="F9">
-        <v>36.09937763561175</v>
+        <v>24.0032802950313</v>
       </c>
       <c r="I9">
-        <v>26.9573421680561</v>
+        <v>16.51878423584132</v>
       </c>
       <c r="J9">
-        <v>9.858929069083125</v>
+        <v>5.620784691750226</v>
       </c>
       <c r="K9">
-        <v>11.56030456700009</v>
+        <v>12.3349290496576</v>
       </c>
       <c r="L9">
-        <v>11.16730044604774</v>
+        <v>7.24225352027598</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>20.41593708477428</v>
+        <v>12.91729874281015</v>
       </c>
       <c r="O9">
-        <v>27.79449176712521</v>
+        <v>17.55638079798315</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,40 +749,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.78917022560778</v>
+        <v>16.6918731448155</v>
       </c>
       <c r="C10">
-        <v>6.600811010714898</v>
+        <v>6.90119782237044</v>
       </c>
       <c r="D10">
-        <v>8.12645952895482</v>
+        <v>6.149838453064388</v>
       </c>
       <c r="E10">
-        <v>12.57130983079064</v>
+        <v>7.828314781975081</v>
       </c>
       <c r="F10">
-        <v>36.01543850277299</v>
+        <v>24.40428700076395</v>
       </c>
       <c r="I10">
-        <v>26.8353605413174</v>
+        <v>16.38876965214002</v>
       </c>
       <c r="J10">
-        <v>9.832261652052688</v>
+        <v>5.561704595660329</v>
       </c>
       <c r="K10">
-        <v>11.81712152375055</v>
+        <v>13.38207112471342</v>
       </c>
       <c r="L10">
-        <v>11.18024224746049</v>
+        <v>7.487801595203695</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>20.3257474441327</v>
+        <v>12.5978126271531</v>
       </c>
       <c r="O10">
-        <v>27.69151239848776</v>
+        <v>17.60918855173878</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,40 +790,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.9535079458369</v>
+        <v>17.28797265193813</v>
       </c>
       <c r="C11">
-        <v>6.648663129478511</v>
+        <v>7.037120214972642</v>
       </c>
       <c r="D11">
-        <v>8.145431851617992</v>
+        <v>6.285947703369155</v>
       </c>
       <c r="E11">
-        <v>12.56546295852039</v>
+        <v>7.884696785166355</v>
       </c>
       <c r="F11">
-        <v>35.9843508993861</v>
+        <v>24.60543660978113</v>
       </c>
       <c r="I11">
-        <v>26.7841720196388</v>
+        <v>16.34264487054833</v>
       </c>
       <c r="J11">
-        <v>9.820822272756855</v>
+        <v>5.53612273306509</v>
       </c>
       <c r="K11">
-        <v>11.93367432795187</v>
+        <v>13.83355558288992</v>
       </c>
       <c r="L11">
-        <v>11.18752162232018</v>
+        <v>7.59985783508997</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>20.28642881265336</v>
+        <v>12.45471304008953</v>
       </c>
       <c r="O11">
-        <v>27.64958219251898</v>
+        <v>17.6483502035466</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,40 +831,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.01556370951041</v>
+        <v>17.50888573736922</v>
       </c>
       <c r="C12">
-        <v>6.666614043326947</v>
+        <v>7.087959030254158</v>
       </c>
       <c r="D12">
-        <v>8.152759928950069</v>
+        <v>6.337037600220123</v>
       </c>
       <c r="E12">
-        <v>12.56346909467966</v>
+        <v>7.906455410588714</v>
       </c>
       <c r="F12">
-        <v>35.97359939923606</v>
+        <v>24.68434860284655</v>
       </c>
       <c r="I12">
-        <v>26.76540668667873</v>
+        <v>16.32715551608426</v>
       </c>
       <c r="J12">
-        <v>9.816589528473003</v>
+        <v>5.526622608280263</v>
       </c>
       <c r="K12">
-        <v>11.97773307597781</v>
+        <v>14.0009708932076</v>
       </c>
       <c r="L12">
-        <v>11.19047649041996</v>
+        <v>7.642310732193144</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>20.27178439067917</v>
+        <v>12.40082265725538</v>
       </c>
       <c r="O12">
-        <v>27.63441159304887</v>
+        <v>17.66545569433205</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,40 +872,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.00220756894028</v>
+        <v>17.46152164079006</v>
       </c>
       <c r="C13">
-        <v>6.662755645578954</v>
+        <v>7.077038346573593</v>
       </c>
       <c r="D13">
-        <v>8.151175370864024</v>
+        <v>6.326055168269948</v>
       </c>
       <c r="E13">
-        <v>12.56388872728044</v>
+        <v>7.901751231799846</v>
       </c>
       <c r="F13">
-        <v>35.97586953137492</v>
+        <v>24.66723089010522</v>
       </c>
       <c r="I13">
-        <v>26.76942062077684</v>
+        <v>16.33040177851216</v>
       </c>
       <c r="J13">
-        <v>9.817496724091654</v>
+        <v>5.528660286214084</v>
       </c>
       <c r="K13">
-        <v>11.96824826441046</v>
+        <v>13.96507257841882</v>
       </c>
       <c r="L13">
-        <v>11.18983131670954</v>
+        <v>7.633167346819687</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>20.27492746329247</v>
+        <v>12.41241603125021</v>
       </c>
       <c r="O13">
-        <v>27.63764737983432</v>
+        <v>17.66166893970041</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,40 +913,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.95861714220897</v>
+        <v>17.30624357500131</v>
       </c>
       <c r="C14">
-        <v>6.650143400711769</v>
+        <v>7.04131551449661</v>
       </c>
       <c r="D14">
-        <v>8.146031880656457</v>
+        <v>6.290160170701531</v>
       </c>
       <c r="E14">
-        <v>12.56529451315829</v>
+        <v>7.886478730889158</v>
       </c>
       <c r="F14">
-        <v>35.98344591060301</v>
+        <v>24.61187356117912</v>
       </c>
       <c r="I14">
-        <v>26.78261578520373</v>
+        <v>16.34133031216775</v>
       </c>
       <c r="J14">
-        <v>9.820472058347764</v>
+        <v>5.535337393951932</v>
       </c>
       <c r="K14">
-        <v>11.93730082934555</v>
+        <v>13.8473999827937</v>
       </c>
       <c r="L14">
-        <v>11.18776075732541</v>
+        <v>7.60335023984874</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>20.2852191093982</v>
+        <v>12.45027360470282</v>
       </c>
       <c r="O14">
-        <v>27.64831991644414</v>
+        <v>17.64971130902105</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,40 +954,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.93189226543245</v>
+        <v>17.21050535742434</v>
       </c>
       <c r="C15">
-        <v>6.642395742408075</v>
+        <v>7.019351453665795</v>
       </c>
       <c r="D15">
-        <v>8.142899935161187</v>
+        <v>6.268113486349739</v>
       </c>
       <c r="E15">
-        <v>12.56618425320826</v>
+        <v>7.877176874679161</v>
       </c>
       <c r="F15">
-        <v>35.98821958759667</v>
+        <v>24.57832387144692</v>
       </c>
       <c r="I15">
-        <v>26.79077877364109</v>
+        <v>16.34828501664971</v>
       </c>
       <c r="J15">
-        <v>9.822307431244157</v>
+        <v>5.539451726169695</v>
       </c>
       <c r="K15">
-        <v>11.91833346353739</v>
+        <v>13.77486029477996</v>
       </c>
       <c r="L15">
-        <v>11.18651825110405</v>
+        <v>7.585088059092128</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>20.29155487402124</v>
+        <v>12.47350060058482</v>
       </c>
       <c r="O15">
-        <v>27.6549493019847</v>
+        <v>17.64268621123383</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,40 +995,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.77840886285252</v>
+        <v>16.65224007333567</v>
       </c>
       <c r="C16">
-        <v>6.597660394053283</v>
+        <v>6.892227445781002</v>
       </c>
       <c r="D16">
-        <v>8.125239965374215</v>
+        <v>6.140882306488734</v>
       </c>
       <c r="E16">
-        <v>12.57172279697076</v>
+        <v>7.824687430221678</v>
       </c>
       <c r="F16">
-        <v>36.0176129792414</v>
+        <v>24.39152250607675</v>
       </c>
       <c r="I16">
-        <v>26.83879239742099</v>
+        <v>16.39205487294581</v>
       </c>
       <c r="J16">
-        <v>9.833023130348135</v>
+        <v>5.563402558565982</v>
       </c>
       <c r="K16">
-        <v>11.80949574802274</v>
+        <v>13.3520671328346</v>
       </c>
       <c r="L16">
-        <v>11.17979437951198</v>
+        <v>7.480482869875639</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>20.32835130830485</v>
+        <v>12.60720756260027</v>
       </c>
       <c r="O16">
-        <v>27.69435160373761</v>
+        <v>17.60694235365894</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,40 +1036,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.68399926080079</v>
+        <v>16.30113371956809</v>
       </c>
       <c r="C17">
-        <v>6.569921865461087</v>
+        <v>6.813133700040841</v>
       </c>
       <c r="D17">
-        <v>8.114666297803609</v>
+        <v>6.06206794864331</v>
       </c>
       <c r="E17">
-        <v>12.57551358774886</v>
+        <v>7.793218441220126</v>
       </c>
       <c r="F17">
-        <v>36.03746275569885</v>
+        <v>24.28175893245151</v>
       </c>
       <c r="I17">
-        <v>26.8693489923385</v>
+        <v>16.42231418136323</v>
       </c>
       <c r="J17">
-        <v>9.839773774186011</v>
+        <v>5.578427762976442</v>
       </c>
       <c r="K17">
-        <v>11.74262984626279</v>
+        <v>13.08634423089301</v>
       </c>
       <c r="L17">
-        <v>11.1760247636686</v>
+        <v>7.416378946834936</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>20.35136169952443</v>
+        <v>12.68978906767969</v>
       </c>
       <c r="O17">
-        <v>27.71978309667501</v>
+        <v>17.58896275846647</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,40 +1077,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.62962281444263</v>
+        <v>16.09600105065131</v>
       </c>
       <c r="C18">
-        <v>6.553861272011765</v>
+        <v>6.767240212103641</v>
       </c>
       <c r="D18">
-        <v>8.108681464106811</v>
+        <v>6.016469447574507</v>
       </c>
       <c r="E18">
-        <v>12.57783864752935</v>
+        <v>7.775388567923878</v>
       </c>
       <c r="F18">
-        <v>36.04954780730773</v>
+        <v>24.22038631398042</v>
       </c>
       <c r="I18">
-        <v>26.88732921228944</v>
+        <v>16.44093745381356</v>
       </c>
       <c r="J18">
-        <v>9.843721700070551</v>
+        <v>5.587191581541688</v>
       </c>
       <c r="K18">
-        <v>11.70414671730715</v>
+        <v>12.93116532575151</v>
       </c>
       <c r="L18">
-        <v>11.17398772759187</v>
+        <v>7.379543262015417</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>20.36475759896237</v>
+        <v>12.73749971663459</v>
       </c>
       <c r="O18">
-        <v>27.73487326909864</v>
+        <v>17.58004047853832</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,40 +1118,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.61120083330232</v>
+        <v>16.02958857856465</v>
       </c>
       <c r="C19">
-        <v>6.548405417370594</v>
+        <v>6.75163323349252</v>
       </c>
       <c r="D19">
-        <v>8.106671855306342</v>
+        <v>6.000986138077051</v>
       </c>
       <c r="E19">
-        <v>12.57865074732861</v>
+        <v>7.769398222608507</v>
       </c>
       <c r="F19">
-        <v>36.05375431409659</v>
+        <v>24.19990741076219</v>
       </c>
       <c r="I19">
-        <v>26.8934865406277</v>
+        <v>16.44744919646545</v>
       </c>
       <c r="J19">
-        <v>9.845069598247321</v>
+        <v>5.590179734492909</v>
       </c>
       <c r="K19">
-        <v>11.69111409903752</v>
+        <v>12.8782214895581</v>
       </c>
       <c r="L19">
-        <v>11.17332060155973</v>
+        <v>7.367078367775153</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>20.36932089331901</v>
+        <v>12.75369081315769</v>
       </c>
       <c r="O19">
-        <v>27.74006198349525</v>
+        <v>17.57726025449644</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,40 +1159,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.69405745391417</v>
+        <v>16.33883896025247</v>
       </c>
       <c r="C20">
-        <v>6.572885713388599</v>
+        <v>6.82159499526276</v>
       </c>
       <c r="D20">
-        <v>8.115781886088643</v>
+        <v>6.070485775592795</v>
       </c>
       <c r="E20">
-        <v>12.57509508140081</v>
+        <v>7.796540428784554</v>
       </c>
       <c r="F20">
-        <v>36.03528057671355</v>
+        <v>24.29326088382439</v>
       </c>
       <c r="I20">
-        <v>26.86605428694789</v>
+        <v>16.41896612632811</v>
       </c>
       <c r="J20">
-        <v>9.839048418214176</v>
+        <v>5.576815699518074</v>
       </c>
       <c r="K20">
-        <v>11.74975055807834</v>
+        <v>13.11487312748828</v>
       </c>
       <c r="L20">
-        <v>11.17641248555044</v>
+        <v>7.423199510404435</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>20.34889555615381</v>
+        <v>12.68097635367087</v>
       </c>
       <c r="O20">
-        <v>27.71702798370515</v>
+        <v>17.59072912593518</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,40 +1200,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.97142590725889</v>
+        <v>17.35198286428763</v>
       </c>
       <c r="C21">
-        <v>6.653852580864802</v>
+        <v>7.051825458345191</v>
       </c>
       <c r="D21">
-        <v>8.147538781344872</v>
+        <v>6.300715963878887</v>
       </c>
       <c r="E21">
-        <v>12.56487562939763</v>
+        <v>7.890953599792745</v>
       </c>
       <c r="F21">
-        <v>35.98119284280457</v>
+        <v>24.62805861002267</v>
       </c>
       <c r="I21">
-        <v>26.77872325483299</v>
+        <v>16.33806582210921</v>
       </c>
       <c r="J21">
-        <v>9.819595443961436</v>
+        <v>5.533371076124912</v>
       </c>
       <c r="K21">
-        <v>11.94639323473145</v>
+        <v>13.88205947383789</v>
       </c>
       <c r="L21">
-        <v>11.1883635635722</v>
+        <v>7.612107954563895</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>20.2821895711436</v>
+        <v>12.43914601287945</v>
       </c>
       <c r="O21">
-        <v>27.64516592905897</v>
+        <v>17.65316100698541</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,40 +1241,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.15165525765901</v>
+        <v>17.98607685570239</v>
       </c>
       <c r="C22">
-        <v>6.70577723186904</v>
+        <v>7.198604282435948</v>
       </c>
       <c r="D22">
-        <v>8.169129237766279</v>
+        <v>6.448536237476847</v>
       </c>
       <c r="E22">
-        <v>12.55947984903771</v>
+        <v>7.955033744410021</v>
       </c>
       <c r="F22">
-        <v>35.95179267687937</v>
+        <v>24.86286301809227</v>
       </c>
       <c r="I22">
-        <v>26.72525338307703</v>
+        <v>16.29676848646469</v>
       </c>
       <c r="J22">
-        <v>9.807459262639705</v>
+        <v>5.506069122043606</v>
       </c>
       <c r="K22">
-        <v>12.07444338213864</v>
+        <v>14.36276921520203</v>
       </c>
       <c r="L22">
-        <v>11.19732934977714</v>
+        <v>7.735671889880664</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>20.24001910613137</v>
+        <v>12.2828230467716</v>
       </c>
       <c r="O22">
-        <v>27.60232376598799</v>
+        <v>17.70727421225133</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,40 +1282,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.0555774181768</v>
+        <v>17.65020045639327</v>
       </c>
       <c r="C23">
-        <v>6.678157052358767</v>
+        <v>7.120608457140622</v>
       </c>
       <c r="D23">
-        <v>8.157530896347572</v>
+        <v>6.369896390324953</v>
       </c>
       <c r="E23">
-        <v>12.56224252841806</v>
+        <v>7.920617173583647</v>
       </c>
       <c r="F23">
-        <v>35.96693975284306</v>
+        <v>24.73606571175362</v>
       </c>
       <c r="I23">
-        <v>26.7534612785815</v>
+        <v>16.31771472868698</v>
       </c>
       <c r="J23">
-        <v>9.813883855887173</v>
+        <v>5.520540395010356</v>
       </c>
       <c r="K23">
-        <v>12.00615559000906</v>
+        <v>14.10808996009307</v>
       </c>
       <c r="L23">
-        <v>11.1924390920511</v>
+        <v>7.669724063363879</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>20.26239617267886</v>
+        <v>12.36610554191114</v>
       </c>
       <c r="O23">
-        <v>27.62481192294641</v>
+        <v>17.67714268495693</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,40 +1323,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.6895104491811</v>
+        <v>16.32180263133748</v>
       </c>
       <c r="C24">
-        <v>6.571546110272412</v>
+        <v>6.817770954954944</v>
       </c>
       <c r="D24">
-        <v>8.115277235201658</v>
+        <v>6.066680967023045</v>
       </c>
       <c r="E24">
-        <v>12.57528383428258</v>
+        <v>7.795037741592433</v>
       </c>
       <c r="F24">
-        <v>36.03626504304081</v>
+        <v>24.28805546073565</v>
       </c>
       <c r="I24">
-        <v>26.86754253733255</v>
+        <v>16.42047596871675</v>
       </c>
       <c r="J24">
-        <v>9.839376143263099</v>
+        <v>5.57754412218416</v>
       </c>
       <c r="K24">
-        <v>11.74653140917477</v>
+        <v>13.10198272565307</v>
       </c>
       <c r="L24">
-        <v>11.1762367908992</v>
+        <v>7.420115873535849</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>20.3500099795412</v>
+        <v>12.68495985281288</v>
       </c>
       <c r="O24">
-        <v>27.71827210858228</v>
+        <v>17.58992615307102</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,40 +1364,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.29204114661066</v>
+        <v>14.87034262134273</v>
       </c>
       <c r="C25">
-        <v>6.452520881846002</v>
+        <v>6.475891306602128</v>
       </c>
       <c r="D25">
-        <v>8.073417207532547</v>
+        <v>5.729636612517582</v>
       </c>
       <c r="E25">
-        <v>12.59488571269647</v>
+        <v>7.669924419299488</v>
       </c>
       <c r="F25">
-        <v>36.13657824024566</v>
+        <v>23.87185669724206</v>
       </c>
       <c r="I25">
-        <v>27.00607662572158</v>
+        <v>16.57753441042753</v>
       </c>
       <c r="J25">
-        <v>9.869365514692822</v>
+        <v>5.643682581859725</v>
       </c>
       <c r="K25">
-        <v>11.46574080582468</v>
+        <v>11.92712322470063</v>
       </c>
       <c r="L25">
-        <v>11.1637803882916</v>
+        <v>7.152361684568675</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>20.45067305953399</v>
+        <v>13.03708371343051</v>
       </c>
       <c r="O25">
-        <v>27.83676911625564</v>
+        <v>17.5496953140561</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_34/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_34/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,989 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.73148204886056</v>
+        <v>20.76249314905802</v>
       </c>
       <c r="C2">
-        <v>6.211892273758264</v>
+        <v>16.90900376337951</v>
       </c>
       <c r="D2">
-        <v>5.474644641227174</v>
+        <v>3.92310140522931</v>
       </c>
       <c r="E2">
-        <v>7.586799925495025</v>
+        <v>29.46945748909621</v>
       </c>
       <c r="F2">
-        <v>23.62084792259001</v>
+        <v>20.03522088696154</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>3.317414370702723</v>
       </c>
       <c r="I2">
-        <v>16.72927630909352</v>
+        <v>3.521752835593291</v>
       </c>
       <c r="J2">
-        <v>5.696356663081685</v>
+        <v>4.251792669784106</v>
       </c>
       <c r="K2">
-        <v>10.98419052496535</v>
+        <v>12.43954699832872</v>
       </c>
       <c r="L2">
-        <v>6.957696194778524</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>13.30424656827617</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>17.5626633042497</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>11.74089954989322</v>
+      </c>
+      <c r="Q2">
+        <v>15.61128189632512</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.90892155076919</v>
+        <v>19.40248545260294</v>
       </c>
       <c r="C3">
-        <v>6.025853962922414</v>
+        <v>15.88808258680778</v>
       </c>
       <c r="D3">
-        <v>5.298638970452102</v>
+        <v>3.795534377961643</v>
       </c>
       <c r="E3">
-        <v>7.536103991323973</v>
+        <v>27.59764084409623</v>
       </c>
       <c r="F3">
-        <v>23.48397315665352</v>
+        <v>19.2160018940314</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>3.069380798984363</v>
       </c>
       <c r="I3">
-        <v>16.85291385386082</v>
+        <v>3.360587232459326</v>
       </c>
       <c r="J3">
-        <v>5.734527150380107</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K3">
-        <v>10.29630561424791</v>
+        <v>12.4394298892561</v>
       </c>
       <c r="L3">
-        <v>6.827966794311369</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>13.49062897756273</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>17.59612945678226</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>11.79858674799923</v>
+      </c>
+      <c r="Q3">
+        <v>15.16467117491439</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.37954676894976</v>
+        <v>18.51462303832287</v>
       </c>
       <c r="C4">
-        <v>5.908328441795969</v>
+        <v>15.23059837544039</v>
       </c>
       <c r="D4">
-        <v>5.189404029321801</v>
+        <v>3.714373139481587</v>
       </c>
       <c r="E4">
-        <v>7.507758629386228</v>
+        <v>26.38463372360937</v>
       </c>
       <c r="F4">
-        <v>23.41581174317578</v>
+        <v>18.70461011324838</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>2.911791869723002</v>
       </c>
       <c r="I4">
-        <v>16.93854964052948</v>
+        <v>3.258888793376612</v>
       </c>
       <c r="J4">
-        <v>5.759181923127174</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K4">
-        <v>9.849818094536525</v>
+        <v>12.44453421939695</v>
       </c>
       <c r="L4">
-        <v>6.749621463920379</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>13.6078179487183</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>17.62822141022272</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>11.83677566116297</v>
+      </c>
+      <c r="Q4">
+        <v>14.89060054557778</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.15784864183487</v>
+        <v>18.13404814627066</v>
       </c>
       <c r="C5">
-        <v>5.859643832946011</v>
+        <v>14.96394738449779</v>
       </c>
       <c r="D5">
-        <v>5.14466392527978</v>
+        <v>3.68175891735523</v>
       </c>
       <c r="E5">
-        <v>7.496906754815881</v>
+        <v>25.87405183519652</v>
       </c>
       <c r="F5">
-        <v>23.39194610373183</v>
+        <v>18.48637158524919</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>2.84606835943034</v>
       </c>
       <c r="I5">
-        <v>16.97581485981053</v>
+        <v>3.216983284511191</v>
       </c>
       <c r="J5">
-        <v>5.769534958057041</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K5">
-        <v>9.66180990593134</v>
+        <v>12.44213477168268</v>
       </c>
       <c r="L5">
-        <v>6.718058808893962</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>13.6562818495144</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>17.64410889737519</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>11.85409111044468</v>
+      </c>
+      <c r="Q5">
+        <v>14.77264474644365</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.12067989323989</v>
+        <v>18.06339549328633</v>
       </c>
       <c r="C6">
-        <v>5.851513114483323</v>
+        <v>14.9301297600321</v>
       </c>
       <c r="D6">
-        <v>5.137223278970106</v>
+        <v>3.677713959991475</v>
       </c>
       <c r="E6">
-        <v>7.495146996318551</v>
+        <v>25.78799207181422</v>
       </c>
       <c r="F6">
-        <v>23.38821688079362</v>
+        <v>18.44022523773477</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>2.834890089323023</v>
       </c>
       <c r="I6">
-        <v>16.98214355971711</v>
+        <v>3.210449083237774</v>
       </c>
       <c r="J6">
-        <v>5.771272548673347</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K6">
-        <v>9.630225546378425</v>
+        <v>12.43482122906489</v>
       </c>
       <c r="L6">
-        <v>6.712840824332095</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>13.66437251901124</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>17.64691399599682</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>11.85832707995005</v>
+      </c>
+      <c r="Q6">
+        <v>14.74521195383633</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.37658084409359</v>
+        <v>18.49180572821146</v>
       </c>
       <c r="C7">
-        <v>5.90767501912295</v>
+        <v>15.25621525927633</v>
       </c>
       <c r="D7">
-        <v>5.188801471043373</v>
+        <v>3.717764412465796</v>
       </c>
       <c r="E7">
-        <v>7.507609448082054</v>
+        <v>26.37698235269661</v>
       </c>
       <c r="F7">
-        <v>23.41547416266841</v>
+        <v>18.67526057938175</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>2.910420710815801</v>
       </c>
       <c r="I7">
-        <v>16.93904272349231</v>
+        <v>3.259320825957816</v>
       </c>
       <c r="J7">
-        <v>5.759320308982834</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K7">
-        <v>9.847307077826731</v>
+        <v>12.4254116823161</v>
       </c>
       <c r="L7">
-        <v>6.749194280857323</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>13.60846865921932</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>17.62842442028823</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>11.84068669198052</v>
+      </c>
+      <c r="Q7">
+        <v>14.86774331027533</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.45298512463135</v>
+        <v>20.282816761974</v>
       </c>
       <c r="C8">
-        <v>6.148451681109806</v>
+        <v>16.59928114614524</v>
       </c>
       <c r="D8">
-        <v>5.414238978612886</v>
+        <v>3.884653603194396</v>
       </c>
       <c r="E8">
-        <v>7.568742548021184</v>
+        <v>28.83625210252274</v>
       </c>
       <c r="F8">
-        <v>23.57031006764559</v>
+        <v>19.7214044003646</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>3.232361917857127</v>
       </c>
       <c r="I8">
-        <v>16.76984160805714</v>
+        <v>3.467706336713907</v>
       </c>
       <c r="J8">
-        <v>5.709264892217274</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K8">
-        <v>10.75201508941854</v>
+        <v>12.41318974055904</v>
       </c>
       <c r="L8">
-        <v>6.912714560014069</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>13.36795109021548</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>17.57175050133196</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>11.76540546413913</v>
+      </c>
+      <c r="Q8">
+        <v>15.43014429803373</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.36625053762382</v>
+        <v>23.40636697535204</v>
       </c>
       <c r="C9">
-        <v>6.59302271800541</v>
+        <v>18.94152276403112</v>
       </c>
       <c r="D9">
-        <v>5.844359563538325</v>
+        <v>4.182053910229463</v>
       </c>
       <c r="E9">
-        <v>7.710677103848758</v>
+        <v>33.15579705583666</v>
       </c>
       <c r="F9">
-        <v>24.0032802950313</v>
+        <v>21.73969744257372</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>3.823603208806948</v>
       </c>
       <c r="I9">
-        <v>16.51878423584132</v>
+        <v>3.854394106570408</v>
       </c>
       <c r="J9">
-        <v>5.620784691750226</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K9">
-        <v>12.3349290496576</v>
+        <v>12.46735285605181</v>
       </c>
       <c r="L9">
-        <v>7.24225352027598</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>12.91729874281015</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>17.55638079798315</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>11.63337564022863</v>
+      </c>
+      <c r="Q9">
+        <v>16.56575483467936</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.6918731448155</v>
+        <v>25.39313659272002</v>
       </c>
       <c r="C10">
-        <v>6.90119782237044</v>
+        <v>20.45260313430646</v>
       </c>
       <c r="D10">
-        <v>6.149838453064388</v>
+        <v>4.41136726788938</v>
       </c>
       <c r="E10">
-        <v>7.828314781975081</v>
+        <v>35.14648908615055</v>
       </c>
       <c r="F10">
-        <v>24.40428700076395</v>
+        <v>23.02198909905045</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>4.196935565664353</v>
       </c>
       <c r="I10">
-        <v>16.38876965214002</v>
+        <v>4.119666332045421</v>
       </c>
       <c r="J10">
-        <v>5.561704595660329</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K10">
-        <v>13.38207112471342</v>
+        <v>12.46883671918593</v>
       </c>
       <c r="L10">
-        <v>7.487801595203695</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>12.5978126271531</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>17.60918855173878</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>11.57267418566006</v>
+      </c>
+      <c r="Q10">
+        <v>17.27469012102382</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.28797265193813</v>
+        <v>25.79651220327155</v>
       </c>
       <c r="C11">
-        <v>7.037120214972642</v>
+        <v>20.53680847277898</v>
       </c>
       <c r="D11">
-        <v>6.285947703369155</v>
+        <v>4.729438243739635</v>
       </c>
       <c r="E11">
-        <v>7.884696785166355</v>
+        <v>28.53955782055828</v>
       </c>
       <c r="F11">
-        <v>24.60543660978113</v>
+        <v>22.43498014774913</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>4.543814959005447</v>
       </c>
       <c r="I11">
-        <v>16.34264487054833</v>
+        <v>4.178186684888789</v>
       </c>
       <c r="J11">
-        <v>5.53612273306509</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K11">
-        <v>13.83355558288992</v>
+        <v>11.92761443715156</v>
       </c>
       <c r="L11">
-        <v>7.59985783508997</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>12.45471304008953</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>17.6483502035466</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>11.73128613755076</v>
+      </c>
+      <c r="Q11">
+        <v>16.63097510655757</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.50888573736922</v>
+        <v>25.75594630638395</v>
       </c>
       <c r="C12">
-        <v>7.087959030254158</v>
+        <v>20.26948607403461</v>
       </c>
       <c r="D12">
-        <v>6.337037600220123</v>
+        <v>4.950230816204629</v>
       </c>
       <c r="E12">
-        <v>7.906455410588714</v>
+        <v>22.59354615320701</v>
       </c>
       <c r="F12">
-        <v>24.68434860284655</v>
+        <v>21.69138540238473</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>5.339722701945036</v>
       </c>
       <c r="I12">
-        <v>16.32715551608426</v>
+        <v>4.176454581853468</v>
       </c>
       <c r="J12">
-        <v>5.526622608280263</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K12">
-        <v>14.0009708932076</v>
+        <v>11.49488132669128</v>
       </c>
       <c r="L12">
-        <v>7.642310732193144</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>12.40082265725538</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>17.66545569433205</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>11.87931602598431</v>
+      </c>
+      <c r="Q12">
+        <v>15.95322815968185</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.46152164079006</v>
+        <v>25.35094397890477</v>
       </c>
       <c r="C13">
-        <v>7.077038346573593</v>
+        <v>19.7439141471148</v>
       </c>
       <c r="D13">
-        <v>6.326055168269948</v>
+        <v>5.117492354665885</v>
       </c>
       <c r="E13">
-        <v>7.901751231799846</v>
+        <v>16.69100911638294</v>
       </c>
       <c r="F13">
-        <v>24.66723089010522</v>
+        <v>20.72737129513506</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>6.35259956892456</v>
       </c>
       <c r="I13">
-        <v>16.33040177851216</v>
+        <v>4.130370641784712</v>
       </c>
       <c r="J13">
-        <v>5.528660286214084</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K13">
-        <v>13.96507257841882</v>
+        <v>11.09065081164192</v>
       </c>
       <c r="L13">
-        <v>7.633167346819687</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>12.41241603125021</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>17.66166893970041</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>12.02949848974515</v>
+      </c>
+      <c r="Q13">
+        <v>15.16581295079033</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.30624357500131</v>
+        <v>24.89350770819143</v>
       </c>
       <c r="C14">
-        <v>7.04131551449661</v>
+        <v>19.26080161748316</v>
       </c>
       <c r="D14">
-        <v>6.290160170701531</v>
+        <v>5.212890205126961</v>
       </c>
       <c r="E14">
-        <v>7.886478730889158</v>
+        <v>12.65026213592584</v>
       </c>
       <c r="F14">
-        <v>24.61187356117912</v>
+        <v>19.93570591568451</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>7.148065132821</v>
       </c>
       <c r="I14">
-        <v>16.34133031216775</v>
+        <v>4.079372522660922</v>
       </c>
       <c r="J14">
-        <v>5.535337393951932</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K14">
-        <v>13.8473999827937</v>
+        <v>10.81877838193313</v>
       </c>
       <c r="L14">
-        <v>7.60335023984874</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>12.45027360470282</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>17.64971130902105</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>12.13629860691888</v>
+      </c>
+      <c r="Q14">
+        <v>14.55415623725932</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.21050535742434</v>
+        <v>24.69644163654565</v>
       </c>
       <c r="C15">
-        <v>7.019351453665795</v>
+        <v>19.0940448826184</v>
       </c>
       <c r="D15">
-        <v>6.268113486349739</v>
+        <v>5.22592008787354</v>
       </c>
       <c r="E15">
-        <v>7.877176874679161</v>
+        <v>11.68429394750239</v>
       </c>
       <c r="F15">
-        <v>24.57832387144692</v>
+        <v>19.68664431248381</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>7.331404155207961</v>
       </c>
       <c r="I15">
-        <v>16.34828501664971</v>
+        <v>4.057468334107347</v>
       </c>
       <c r="J15">
-        <v>5.539451726169695</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K15">
-        <v>13.77486029477996</v>
+        <v>10.75382099388022</v>
       </c>
       <c r="L15">
-        <v>7.585088059092128</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>12.47350060058482</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>17.64268621123383</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>12.16340906128302</v>
+      </c>
+      <c r="Q15">
+        <v>14.37570427084798</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.65224007333567</v>
+        <v>23.92939090144415</v>
       </c>
       <c r="C16">
-        <v>6.892227445781002</v>
+        <v>18.55899032157995</v>
       </c>
       <c r="D16">
-        <v>6.140882306488734</v>
+        <v>5.104969973708289</v>
       </c>
       <c r="E16">
-        <v>7.824687430221678</v>
+        <v>11.57182074029125</v>
       </c>
       <c r="F16">
-        <v>24.39152250607675</v>
+        <v>19.26896350325079</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>7.054644568377374</v>
       </c>
       <c r="I16">
-        <v>16.39205487294581</v>
+        <v>3.956117359410324</v>
       </c>
       <c r="J16">
-        <v>5.563402558565982</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K16">
-        <v>13.3520671328346</v>
+        <v>10.826193139488</v>
       </c>
       <c r="L16">
-        <v>7.480482869875639</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>12.60720756260027</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>17.60694235365894</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>12.14765196472979</v>
+      </c>
+      <c r="Q16">
+        <v>14.18968906685084</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.30113371956809</v>
+        <v>23.58242368962589</v>
       </c>
       <c r="C17">
-        <v>6.813133700040841</v>
+        <v>18.40982046720089</v>
       </c>
       <c r="D17">
-        <v>6.06206794864331</v>
+        <v>4.958264375395538</v>
       </c>
       <c r="E17">
-        <v>7.793218441220126</v>
+        <v>13.66219634452106</v>
       </c>
       <c r="F17">
-        <v>24.28175893245151</v>
+        <v>19.38472597891378</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>6.368959092254031</v>
       </c>
       <c r="I17">
-        <v>16.42231418136323</v>
+        <v>3.904821086738008</v>
       </c>
       <c r="J17">
-        <v>5.578427762976442</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K17">
-        <v>13.08634423089301</v>
+        <v>11.0244233664982</v>
       </c>
       <c r="L17">
-        <v>7.416378946834936</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>12.68978906767969</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>17.58896275846647</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>12.08105721041088</v>
+      </c>
+      <c r="Q17">
+        <v>14.38126311890736</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.09600105065131</v>
+        <v>23.58403247218219</v>
       </c>
       <c r="C18">
-        <v>6.767240212103641</v>
+        <v>18.56858606157637</v>
       </c>
       <c r="D18">
-        <v>6.016469447574507</v>
+        <v>4.771800972136375</v>
       </c>
       <c r="E18">
-        <v>7.775388567923878</v>
+        <v>18.2010869829901</v>
       </c>
       <c r="F18">
-        <v>24.22038631398042</v>
+        <v>19.98886478536285</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>5.343129168444694</v>
       </c>
       <c r="I18">
-        <v>16.44093745381356</v>
+        <v>3.891994806894289</v>
       </c>
       <c r="J18">
-        <v>5.587191581541688</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K18">
-        <v>12.93116532575151</v>
+        <v>11.36714170298723</v>
       </c>
       <c r="L18">
-        <v>7.379543262015417</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>12.73749971663459</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>17.58004047853832</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>11.96117468423347</v>
+      </c>
+      <c r="Q18">
+        <v>14.93011773178939</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.02958857856465</v>
+        <v>23.84280416957818</v>
       </c>
       <c r="C19">
-        <v>6.75163323349252</v>
+        <v>19.01240537560079</v>
       </c>
       <c r="D19">
-        <v>6.000986138077051</v>
+        <v>4.578583462143687</v>
       </c>
       <c r="E19">
-        <v>7.769398222608507</v>
+        <v>24.46179453438072</v>
       </c>
       <c r="F19">
-        <v>24.19990741076219</v>
+        <v>20.88642469981226</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>4.3790833919042</v>
       </c>
       <c r="I19">
-        <v>16.44744919646545</v>
+        <v>3.920458582430948</v>
       </c>
       <c r="J19">
-        <v>5.590179734492909</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K19">
-        <v>12.8782214895581</v>
+        <v>11.77406162586868</v>
       </c>
       <c r="L19">
-        <v>7.367078367775153</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>12.75369081315769</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>17.57726025449644</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>11.82103805262097</v>
+      </c>
+      <c r="Q19">
+        <v>15.6832689033079</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.33883896025247</v>
+        <v>24.84271326849415</v>
       </c>
       <c r="C20">
-        <v>6.82159499526276</v>
+        <v>20.13369880495015</v>
       </c>
       <c r="D20">
-        <v>6.070485775592795</v>
+        <v>4.364230997977429</v>
       </c>
       <c r="E20">
-        <v>7.796540428784554</v>
+        <v>34.59397596478638</v>
       </c>
       <c r="F20">
-        <v>24.29326088382439</v>
+        <v>22.61441258860481</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>4.096528273448531</v>
       </c>
       <c r="I20">
-        <v>16.41896612632811</v>
+        <v>4.05504950690785</v>
       </c>
       <c r="J20">
-        <v>5.576815699518074</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K20">
-        <v>13.11487312748828</v>
+        <v>12.40519572967063</v>
       </c>
       <c r="L20">
-        <v>7.423199510404435</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>12.68097635367087</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>17.59072912593518</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>11.60223844571683</v>
+      </c>
+      <c r="Q20">
+        <v>17.0260412279193</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.35198286428763</v>
+        <v>26.37874233587352</v>
       </c>
       <c r="C21">
-        <v>7.051825458345191</v>
+        <v>21.33819158961473</v>
       </c>
       <c r="D21">
-        <v>6.300715963878887</v>
+        <v>4.495123789858151</v>
       </c>
       <c r="E21">
-        <v>7.890953599792745</v>
+        <v>37.39577905249038</v>
       </c>
       <c r="F21">
-        <v>24.62805861002267</v>
+        <v>23.79747227457331</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>4.435511629767137</v>
       </c>
       <c r="I21">
-        <v>16.33806582210921</v>
+        <v>4.266198886550001</v>
       </c>
       <c r="J21">
-        <v>5.533371076124912</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K21">
-        <v>13.88205947383789</v>
+        <v>12.52302070919873</v>
       </c>
       <c r="L21">
-        <v>7.612107954563895</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>12.43914601287945</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>17.65316100698541</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>11.5290013628048</v>
+      </c>
+      <c r="Q21">
+        <v>17.74847798724947</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.98607685570239</v>
+        <v>27.32812959339944</v>
       </c>
       <c r="C22">
-        <v>7.198604282435948</v>
+        <v>22.03441985913998</v>
       </c>
       <c r="D22">
-        <v>6.448536237476847</v>
+        <v>4.585865276891255</v>
       </c>
       <c r="E22">
-        <v>7.955033744410021</v>
+        <v>38.71907219339311</v>
       </c>
       <c r="F22">
-        <v>24.86286301809227</v>
+        <v>24.51675331908951</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>4.634066397687269</v>
       </c>
       <c r="I22">
-        <v>16.29676848646469</v>
+        <v>4.396661781866143</v>
       </c>
       <c r="J22">
-        <v>5.506069122043606</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K22">
-        <v>14.36276921520203</v>
+        <v>12.60046371566835</v>
       </c>
       <c r="L22">
-        <v>7.735671889880664</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>12.2828230467716</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>17.70727421225133</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>11.48780711848684</v>
+      </c>
+      <c r="Q22">
+        <v>18.18497192743744</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.65020045639327</v>
+        <v>26.84069005429713</v>
       </c>
       <c r="C23">
-        <v>7.120608457140622</v>
+        <v>21.639835779703</v>
       </c>
       <c r="D23">
-        <v>6.369896390324953</v>
+        <v>4.533730520703605</v>
       </c>
       <c r="E23">
-        <v>7.920617173583647</v>
+        <v>38.01848474313797</v>
       </c>
       <c r="F23">
-        <v>24.73606571175362</v>
+        <v>24.15875136172127</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>4.52889360602386</v>
       </c>
       <c r="I23">
-        <v>16.31771472868698</v>
+        <v>4.325371403770814</v>
       </c>
       <c r="J23">
-        <v>5.520540395010356</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K23">
-        <v>14.10808996009307</v>
+        <v>12.58045327049121</v>
       </c>
       <c r="L23">
-        <v>7.669724063363879</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>12.36610554191114</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>17.67714268495693</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>11.50401197549562</v>
+      </c>
+      <c r="Q23">
+        <v>17.9733440052552</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.32180263133748</v>
+        <v>24.88208116709128</v>
       </c>
       <c r="C24">
-        <v>6.817770954954944</v>
+        <v>20.12954680914483</v>
       </c>
       <c r="D24">
-        <v>6.066680967023045</v>
+        <v>4.336466760254842</v>
       </c>
       <c r="E24">
-        <v>7.795037741592433</v>
+        <v>35.25526634109256</v>
       </c>
       <c r="F24">
-        <v>24.28805546073565</v>
+        <v>22.73916891580001</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>4.122431274002903</v>
       </c>
       <c r="I24">
-        <v>16.42047596871675</v>
+        <v>4.054371781148041</v>
       </c>
       <c r="J24">
-        <v>5.57754412218416</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K24">
-        <v>13.10198272565307</v>
+        <v>12.48477718774886</v>
       </c>
       <c r="L24">
-        <v>7.420115873535849</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>12.68495985281288</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>17.58992615307102</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>11.58035469532742</v>
+      </c>
+      <c r="Q24">
+        <v>17.13426179568537</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.87034262134273</v>
+        <v>22.57891187502645</v>
       </c>
       <c r="C25">
-        <v>6.475891306602128</v>
+        <v>18.37879762043153</v>
       </c>
       <c r="D25">
-        <v>5.729636612517582</v>
+        <v>4.11068251229598</v>
       </c>
       <c r="E25">
-        <v>7.669924419299488</v>
+        <v>32.03974026158451</v>
       </c>
       <c r="F25">
-        <v>23.87185669724206</v>
+        <v>21.16103823251025</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>3.667086252115671</v>
       </c>
       <c r="I25">
-        <v>16.57753441042753</v>
+        <v>3.754008352165907</v>
       </c>
       <c r="J25">
-        <v>5.643682581859725</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K25">
-        <v>11.92712322470063</v>
+        <v>12.41333706485661</v>
       </c>
       <c r="L25">
-        <v>7.152361684568675</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>13.03708371343051</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>17.5496953140561</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>11.67421122652582</v>
+      </c>
+      <c r="Q25">
+        <v>16.22429949564732</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_34/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_34/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,46 +421,52 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.76249314905802</v>
+        <v>20.46357426891786</v>
       </c>
       <c r="C2">
-        <v>16.90900376337951</v>
+        <v>17.40889554502514</v>
       </c>
       <c r="D2">
-        <v>3.92310140522931</v>
+        <v>3.989380023647368</v>
       </c>
       <c r="E2">
-        <v>29.46945748909621</v>
+        <v>29.46519901144558</v>
       </c>
       <c r="F2">
-        <v>20.03522088696154</v>
+        <v>19.54392047340999</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>3.317414370702723</v>
+        <v>3.314831297836572</v>
       </c>
       <c r="I2">
-        <v>3.521752835593291</v>
+        <v>3.517396224713255</v>
       </c>
       <c r="J2">
-        <v>4.251792669784106</v>
+        <v>5.716774528916059</v>
       </c>
       <c r="K2">
-        <v>12.43954699832872</v>
+        <v>12.04514293297486</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>11.29343656654494</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>6.659192351336865</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -469,51 +475,57 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>11.74089954989322</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>15.61128189632512</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>11.8088561223501</v>
+      </c>
+      <c r="S2">
+        <v>15.20315983156401</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.40248545260294</v>
+        <v>19.15864112134932</v>
       </c>
       <c r="C3">
-        <v>15.88808258680778</v>
+        <v>16.29441300417867</v>
       </c>
       <c r="D3">
-        <v>3.795534377961643</v>
+        <v>3.843391707806961</v>
       </c>
       <c r="E3">
-        <v>27.59764084409623</v>
+        <v>27.6028896781338</v>
       </c>
       <c r="F3">
-        <v>19.2160018940314</v>
+        <v>18.79348445726759</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3.069380798984363</v>
+        <v>3.072515512898299</v>
       </c>
       <c r="I3">
-        <v>3.360587232459326</v>
+        <v>3.372334117053643</v>
       </c>
       <c r="J3">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K3">
-        <v>12.4394298892561</v>
+        <v>12.09042958594149</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>11.44057005291092</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>6.541007816109823</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -522,51 +534,57 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>11.79858674799923</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>15.16467117491439</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>11.83807659158943</v>
+      </c>
+      <c r="S3">
+        <v>14.81255296592794</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.51462303832287</v>
+        <v>18.30654469740746</v>
       </c>
       <c r="C4">
-        <v>15.23059837544039</v>
+        <v>15.57587008536145</v>
       </c>
       <c r="D4">
-        <v>3.714373139481587</v>
+        <v>3.750586722305606</v>
       </c>
       <c r="E4">
-        <v>26.38463372360937</v>
+        <v>26.39601248339751</v>
       </c>
       <c r="F4">
-        <v>18.70461011324838</v>
+        <v>18.3247761679089</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2.911791869723002</v>
+        <v>2.918504813233016</v>
       </c>
       <c r="I4">
-        <v>3.258888793376612</v>
+        <v>3.280884088755163</v>
       </c>
       <c r="J4">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K4">
-        <v>12.44453421939695</v>
+        <v>12.12190746813056</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>11.5321953728465</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>6.494938406283174</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -575,51 +593,57 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>11.83677566116297</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>14.89060054557778</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>11.85925879732888</v>
+      </c>
+      <c r="S4">
+        <v>14.57268118244275</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.13404814627066</v>
+        <v>17.94108891526206</v>
       </c>
       <c r="C5">
-        <v>14.96394738449779</v>
+        <v>15.28347964330346</v>
       </c>
       <c r="D5">
-        <v>3.68175891735523</v>
+        <v>3.713190703600753</v>
       </c>
       <c r="E5">
-        <v>25.87405183519652</v>
+        <v>25.88801860740104</v>
       </c>
       <c r="F5">
-        <v>18.48637158524919</v>
+        <v>18.12405724911215</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2.84606835943034</v>
+        <v>2.854261469133413</v>
       </c>
       <c r="I5">
-        <v>3.216983284511191</v>
+        <v>3.243471068483099</v>
       </c>
       <c r="J5">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K5">
-        <v>12.44213477168268</v>
+        <v>12.13012241598733</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>11.56517658410094</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>6.479301962565214</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -628,51 +652,57 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>11.85409111044468</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>14.77264474644365</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>11.86985309762749</v>
+      </c>
+      <c r="S5">
+        <v>14.46865244230709</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.06339549328633</v>
+        <v>17.87302991997456</v>
       </c>
       <c r="C6">
-        <v>14.9301297600321</v>
+        <v>15.245394000983</v>
       </c>
       <c r="D6">
-        <v>3.677713959991475</v>
+        <v>3.708394854454587</v>
       </c>
       <c r="E6">
-        <v>25.78799207181422</v>
+        <v>25.80240095127291</v>
       </c>
       <c r="F6">
-        <v>18.44022523773477</v>
+        <v>18.08090003538443</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>2.834890089323023</v>
+        <v>2.843334618322383</v>
       </c>
       <c r="I6">
-        <v>3.210449083237774</v>
+        <v>3.237996086702303</v>
       </c>
       <c r="J6">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K6">
-        <v>12.43482122906489</v>
+        <v>12.12484280137896</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>11.56495494397882</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>6.472680696521303</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -681,51 +711,57 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>11.85832707995005</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>14.74521195383633</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>11.87309307293289</v>
+      </c>
+      <c r="S6">
+        <v>14.44362011055356</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.49180572821146</v>
+        <v>18.28406843963187</v>
       </c>
       <c r="C7">
-        <v>15.25621525927633</v>
+        <v>15.60129529249107</v>
       </c>
       <c r="D7">
-        <v>3.717764412465796</v>
+        <v>3.754043928713366</v>
       </c>
       <c r="E7">
-        <v>26.37698235269661</v>
+        <v>26.38841545225297</v>
       </c>
       <c r="F7">
-        <v>18.67526057938175</v>
+        <v>18.2958799511037</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>2.910420710815801</v>
+        <v>2.917166105372878</v>
       </c>
       <c r="I7">
-        <v>3.259320825957816</v>
+        <v>3.282159286759331</v>
       </c>
       <c r="J7">
-        <v>4.251792669778333</v>
+        <v>5.712988455786178</v>
       </c>
       <c r="K7">
-        <v>12.4254116823161</v>
+        <v>12.10377475889165</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>11.5174262935805</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>6.482007891185355</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -734,51 +770,57 @@
         <v>0</v>
       </c>
       <c r="P7">
-        <v>11.84068669198052</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>14.86774331027533</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>11.86340139297871</v>
+      </c>
+      <c r="S7">
+        <v>14.55027728112893</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.282816761974</v>
+        <v>20.0026579870224</v>
       </c>
       <c r="C8">
-        <v>16.59928114614524</v>
+        <v>17.06780341987799</v>
       </c>
       <c r="D8">
-        <v>3.884653603194396</v>
+        <v>3.944823866401002</v>
       </c>
       <c r="E8">
-        <v>28.83625210252274</v>
+        <v>28.83524735100383</v>
       </c>
       <c r="F8">
-        <v>19.7214044003646</v>
+        <v>19.25399238421351</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>3.232361917857127</v>
+        <v>3.231755301728243</v>
       </c>
       <c r="I8">
-        <v>3.467706336713907</v>
+        <v>3.46978693274078</v>
       </c>
       <c r="J8">
-        <v>4.251792669778333</v>
+        <v>5.711640832521052</v>
       </c>
       <c r="K8">
-        <v>12.41318974055904</v>
+        <v>12.03603435192323</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>11.32545515308019</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>6.594085690204602</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -787,51 +829,57 @@
         <v>0</v>
       </c>
       <c r="P8">
-        <v>11.76540546413913</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>15.43014429803373</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>11.82392795622881</v>
+      </c>
+      <c r="S8">
+        <v>15.04171627327282</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.40636697535204</v>
+        <v>22.99900174149865</v>
       </c>
       <c r="C9">
-        <v>18.94152276403112</v>
+        <v>19.62336470621795</v>
       </c>
       <c r="D9">
-        <v>4.182053910229463</v>
+        <v>4.285903504524517</v>
       </c>
       <c r="E9">
-        <v>33.15579705583666</v>
+        <v>33.13225117778736</v>
       </c>
       <c r="F9">
-        <v>21.73969744257372</v>
+        <v>21.1046849957656</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>3.823603208806948</v>
+        <v>3.809021813415272</v>
       </c>
       <c r="I9">
-        <v>3.854394106570408</v>
+        <v>3.81732111570855</v>
       </c>
       <c r="J9">
-        <v>4.251792669778333</v>
+        <v>5.712301332179654</v>
       </c>
       <c r="K9">
-        <v>12.46735285605181</v>
+        <v>11.96732827869395</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>10.98300885418077</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>7.042877790477404</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -840,51 +888,57 @@
         <v>0</v>
       </c>
       <c r="P9">
-        <v>11.63337564022863</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>16.56575483467936</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>11.76523532666508</v>
+      </c>
+      <c r="S9">
+        <v>16.03772629427743</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.39313659272002</v>
+        <v>24.90588735036797</v>
       </c>
       <c r="C10">
-        <v>20.45260313430646</v>
+        <v>21.26569772311843</v>
       </c>
       <c r="D10">
-        <v>4.41136726788938</v>
+        <v>4.544635068886797</v>
       </c>
       <c r="E10">
-        <v>35.14648908615055</v>
+        <v>35.10739447907036</v>
       </c>
       <c r="F10">
-        <v>23.02198909905045</v>
+        <v>22.277146776923</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.196935565664353</v>
+        <v>4.172644791490232</v>
       </c>
       <c r="I10">
-        <v>4.119666332045421</v>
+        <v>4.056586812604504</v>
       </c>
       <c r="J10">
-        <v>4.251792669778333</v>
+        <v>5.744419754315621</v>
       </c>
       <c r="K10">
-        <v>12.46883671918593</v>
+        <v>11.88091481485885</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>10.69821815213133</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>7.424534982120464</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -893,51 +947,57 @@
         <v>0</v>
       </c>
       <c r="P10">
-        <v>11.57267418566006</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>17.27469012102382</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>11.76058003975878</v>
+      </c>
+      <c r="S10">
+        <v>16.65333818625573</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25.79651220327155</v>
+        <v>25.31661338907026</v>
       </c>
       <c r="C11">
-        <v>20.53680847277898</v>
+        <v>21.33614047540041</v>
       </c>
       <c r="D11">
-        <v>4.729438243739635</v>
+        <v>4.869381475412491</v>
       </c>
       <c r="E11">
-        <v>28.53955782055828</v>
+        <v>28.49555218719298</v>
       </c>
       <c r="F11">
-        <v>22.43498014774913</v>
+        <v>21.70957817402702</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.543814959005447</v>
+        <v>4.520805596251498</v>
       </c>
       <c r="I11">
-        <v>4.178186684888789</v>
+        <v>4.111375129764878</v>
       </c>
       <c r="J11">
-        <v>4.251792669778333</v>
+        <v>5.942780798806009</v>
       </c>
       <c r="K11">
-        <v>11.92761443715156</v>
+        <v>11.38261381314597</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>10.28121900967161</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>7.170991413557506</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -946,51 +1006,57 @@
         <v>0</v>
       </c>
       <c r="P11">
-        <v>11.73128613755076</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>16.63097510655757</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>11.94074249112846</v>
+      </c>
+      <c r="S11">
+        <v>16.03030579310523</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>25.75594630638395</v>
+        <v>25.29830270759351</v>
       </c>
       <c r="C12">
-        <v>20.26948607403461</v>
+        <v>21.03046448440928</v>
       </c>
       <c r="D12">
-        <v>4.950230816204629</v>
+        <v>5.088513212664178</v>
       </c>
       <c r="E12">
-        <v>22.59354615320701</v>
+        <v>22.54626723488223</v>
       </c>
       <c r="F12">
-        <v>21.69138540238473</v>
+        <v>21.00536950371674</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>5.339722701945036</v>
+        <v>5.321172300557887</v>
       </c>
       <c r="I12">
-        <v>4.176454581853468</v>
+        <v>4.109928455973535</v>
       </c>
       <c r="J12">
-        <v>4.251792669778333</v>
+        <v>6.092466875987244</v>
       </c>
       <c r="K12">
-        <v>11.49488132669128</v>
+        <v>11.0048497081883</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>10.0165388119426</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>6.885740777832732</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -999,51 +1065,57 @@
         <v>0</v>
       </c>
       <c r="P12">
-        <v>11.87931602598431</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>15.95322815968185</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>12.09249458700686</v>
+      </c>
+      <c r="S12">
+        <v>15.38980862410626</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>25.35094397890477</v>
+        <v>24.92917156043605</v>
       </c>
       <c r="C13">
-        <v>19.7439141471148</v>
+        <v>20.44413164355396</v>
       </c>
       <c r="D13">
-        <v>5.117492354665885</v>
+        <v>5.248138920989153</v>
       </c>
       <c r="E13">
-        <v>16.69100911638294</v>
+        <v>16.64027960589422</v>
       </c>
       <c r="F13">
-        <v>20.72737129513506</v>
+        <v>20.10002308735111</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>6.35259956892456</v>
+        <v>6.3387941196131</v>
       </c>
       <c r="I13">
-        <v>4.130370641784712</v>
+        <v>4.068477514114266</v>
       </c>
       <c r="J13">
-        <v>4.251792669778333</v>
+        <v>6.056017976358584</v>
       </c>
       <c r="K13">
-        <v>11.09065081164192</v>
+        <v>10.66969524736815</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>9.825195418205938</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>6.533715227043165</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1052,51 +1124,57 @@
         <v>0</v>
       </c>
       <c r="P13">
-        <v>12.02949848974515</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>15.16581295079033</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>12.23378461278843</v>
+      </c>
+      <c r="S13">
+        <v>14.6560984545273</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>24.89350770819143</v>
+        <v>24.50344503078752</v>
       </c>
       <c r="C14">
-        <v>19.26080161748316</v>
+        <v>19.90750603349502</v>
       </c>
       <c r="D14">
-        <v>5.212890205126961</v>
+        <v>5.335448959841048</v>
       </c>
       <c r="E14">
-        <v>12.65026213592584</v>
+        <v>12.5954796704732</v>
       </c>
       <c r="F14">
-        <v>19.93570591568451</v>
+        <v>19.35888057147664</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7.148065132821</v>
+        <v>7.137184459670133</v>
       </c>
       <c r="I14">
-        <v>4.079372522660922</v>
+        <v>4.02287820131786</v>
       </c>
       <c r="J14">
-        <v>4.251792669778333</v>
+        <v>5.953276842055249</v>
       </c>
       <c r="K14">
-        <v>10.81877838193313</v>
+        <v>10.45221911774193</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>9.718805657870442</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>6.256285837729088</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1105,51 +1183,57 @@
         <v>0</v>
       </c>
       <c r="P14">
-        <v>12.13629860691888</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>14.55415623725932</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>12.32872172681279</v>
+      </c>
+      <c r="S14">
+        <v>14.0900438361627</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>24.69644163654565</v>
+        <v>24.31721521129185</v>
       </c>
       <c r="C15">
-        <v>19.0940448826184</v>
+        <v>19.72263838524551</v>
       </c>
       <c r="D15">
-        <v>5.22592008787354</v>
+        <v>5.34537055649536</v>
       </c>
       <c r="E15">
-        <v>11.68429394750239</v>
+        <v>11.62891934457174</v>
       </c>
       <c r="F15">
-        <v>19.68664431248381</v>
+        <v>19.12644024259064</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7.331404155207961</v>
+        <v>7.321325072503784</v>
       </c>
       <c r="I15">
-        <v>4.057468334107347</v>
+        <v>4.00369394152639</v>
       </c>
       <c r="J15">
-        <v>4.251792669778333</v>
+        <v>5.901744702168163</v>
       </c>
       <c r="K15">
-        <v>10.75382099388022</v>
+        <v>10.40347988311381</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>9.702322328563678</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>6.172101737662139</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1158,51 +1242,57 @@
         <v>0</v>
       </c>
       <c r="P15">
-        <v>12.16340906128302</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>14.37570427084798</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>12.35063272681758</v>
+      </c>
+      <c r="S15">
+        <v>13.92633257117915</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.92939090144415</v>
+        <v>23.57849018184089</v>
       </c>
       <c r="C16">
-        <v>18.55899032157995</v>
+        <v>19.14110558840988</v>
       </c>
       <c r="D16">
-        <v>5.104969973708289</v>
+        <v>5.214044979064821</v>
       </c>
       <c r="E16">
-        <v>11.57182074029125</v>
+        <v>11.52595170172367</v>
       </c>
       <c r="F16">
-        <v>19.26896350325079</v>
+        <v>18.7467767858093</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7.054644568377374</v>
+        <v>7.046335087560446</v>
       </c>
       <c r="I16">
-        <v>3.956117359410324</v>
+        <v>3.912873312734799</v>
       </c>
       <c r="J16">
-        <v>4.251792669778333</v>
+        <v>5.738831790925769</v>
       </c>
       <c r="K16">
-        <v>10.826193139488</v>
+        <v>10.49858019785854</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>9.825514951034894</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>6.076869416619284</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1211,51 +1301,57 @@
         <v>0</v>
       </c>
       <c r="P16">
-        <v>12.14765196472979</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>14.18968906685084</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>12.31309010934435</v>
+      </c>
+      <c r="S16">
+        <v>13.77169349219638</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>23.58242368962589</v>
+        <v>23.23597723258095</v>
       </c>
       <c r="C17">
-        <v>18.40982046720089</v>
+        <v>18.98552921796669</v>
       </c>
       <c r="D17">
-        <v>4.958264375395538</v>
+        <v>5.063677766253866</v>
       </c>
       <c r="E17">
-        <v>13.66219634452106</v>
+        <v>13.62526521987213</v>
       </c>
       <c r="F17">
-        <v>19.38472597891378</v>
+        <v>18.86391608736998</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>6.368959092254031</v>
+        <v>6.360811772930108</v>
       </c>
       <c r="I17">
-        <v>3.904821086738008</v>
+        <v>3.866936995738648</v>
       </c>
       <c r="J17">
-        <v>4.251792669778333</v>
+        <v>5.713305037326998</v>
       </c>
       <c r="K17">
-        <v>11.0244233664982</v>
+        <v>10.68582085976463</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>9.982922120271404</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>6.150167987305467</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1264,51 +1360,57 @@
         <v>0</v>
       </c>
       <c r="P17">
-        <v>12.08105721041088</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>14.38126311890736</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>12.23615669494996</v>
+      </c>
+      <c r="S17">
+        <v>13.96235569380051</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>23.58403247218219</v>
+        <v>23.2213026961323</v>
       </c>
       <c r="C18">
-        <v>18.56858606157637</v>
+        <v>19.17277571586379</v>
       </c>
       <c r="D18">
-        <v>4.771800972136375</v>
+        <v>4.878620639807973</v>
       </c>
       <c r="E18">
-        <v>18.2010869829901</v>
+        <v>18.17023603194385</v>
       </c>
       <c r="F18">
-        <v>19.98886478536285</v>
+        <v>19.43777533331615</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>5.343129168444694</v>
+        <v>5.333391854514983</v>
       </c>
       <c r="I18">
-        <v>3.891994806894289</v>
+        <v>3.85431295356748</v>
       </c>
       <c r="J18">
-        <v>4.251792669778333</v>
+        <v>5.711150574177133</v>
       </c>
       <c r="K18">
-        <v>11.36714170298723</v>
+        <v>10.98719853086794</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>10.20226970389739</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>6.377634628114438</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1317,51 +1419,57 @@
         <v>0</v>
       </c>
       <c r="P18">
-        <v>11.96117468423347</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>14.93011773178939</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>12.11357240585319</v>
+      </c>
+      <c r="S18">
+        <v>14.48241028495455</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.84280416957818</v>
+        <v>23.44848176749568</v>
       </c>
       <c r="C19">
-        <v>19.01240537560079</v>
+        <v>19.67093596089061</v>
       </c>
       <c r="D19">
-        <v>4.578583462143687</v>
+        <v>4.690287966028031</v>
       </c>
       <c r="E19">
-        <v>24.46179453438072</v>
+        <v>24.43269295180287</v>
       </c>
       <c r="F19">
-        <v>20.88642469981226</v>
+        <v>20.28273610810459</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.3790833919042</v>
+        <v>4.365590857177903</v>
       </c>
       <c r="I19">
-        <v>3.920458582430948</v>
+        <v>3.880325652961163</v>
       </c>
       <c r="J19">
-        <v>4.251792669778333</v>
+        <v>5.711490394033151</v>
       </c>
       <c r="K19">
-        <v>11.77406162586868</v>
+        <v>11.33314890525032</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>10.44077234126637</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>6.68329077853583</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1370,51 +1478,57 @@
         <v>0</v>
       </c>
       <c r="P19">
-        <v>11.82103805262097</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>15.6832689033079</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>11.97655682616324</v>
+      </c>
+      <c r="S19">
+        <v>15.18744972170959</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.84271326849415</v>
+        <v>24.37649283055219</v>
       </c>
       <c r="C20">
-        <v>20.13369880495015</v>
+        <v>20.91309334429994</v>
       </c>
       <c r="D20">
-        <v>4.364230997977429</v>
+        <v>4.490246298970465</v>
       </c>
       <c r="E20">
-        <v>34.59397596478638</v>
+        <v>34.5590495292704</v>
       </c>
       <c r="F20">
-        <v>22.61441258860481</v>
+        <v>21.89900594793989</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.096528273448531</v>
+        <v>4.074837034197347</v>
       </c>
       <c r="I20">
-        <v>4.05504950690785</v>
+        <v>4.00147797623744</v>
       </c>
       <c r="J20">
-        <v>4.251792669778333</v>
+        <v>5.714445660903893</v>
       </c>
       <c r="K20">
-        <v>12.40519572967063</v>
+        <v>11.84466924304677</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>10.73511180084792</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>7.266197446744599</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1423,51 +1537,57 @@
         <v>0</v>
       </c>
       <c r="P20">
-        <v>11.60223844571683</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>17.0260412279193</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>11.77655418595406</v>
+      </c>
+      <c r="S20">
+        <v>16.43013508507342</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.37874233587352</v>
+        <v>25.84605297361984</v>
       </c>
       <c r="C21">
-        <v>21.33819158961473</v>
+        <v>22.22563386234709</v>
       </c>
       <c r="D21">
-        <v>4.495123789858151</v>
+        <v>4.643819154538513</v>
       </c>
       <c r="E21">
-        <v>37.39577905249038</v>
+        <v>37.34839579019854</v>
       </c>
       <c r="F21">
-        <v>23.79747227457331</v>
+        <v>22.98743404593402</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.435511629767137</v>
+        <v>4.405829635860822</v>
       </c>
       <c r="I21">
-        <v>4.266198886550001</v>
+        <v>4.191318060921571</v>
       </c>
       <c r="J21">
-        <v>4.251792669778333</v>
+        <v>6.072890156015649</v>
       </c>
       <c r="K21">
-        <v>12.52302070919873</v>
+        <v>11.87737871778458</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>10.57984452119198</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>7.670624181473953</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1476,51 +1596,57 @@
         <v>0</v>
       </c>
       <c r="P21">
-        <v>11.5290013628048</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>17.74847798724947</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>11.74743095731787</v>
+      </c>
+      <c r="S21">
+        <v>17.07060667909076</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.32812959339944</v>
+        <v>26.75581537140696</v>
       </c>
       <c r="C22">
-        <v>22.03441985913998</v>
+        <v>22.98515503199643</v>
       </c>
       <c r="D22">
-        <v>4.585865276891255</v>
+        <v>4.748502184353818</v>
       </c>
       <c r="E22">
-        <v>38.71907219339311</v>
+        <v>38.66366842340381</v>
       </c>
       <c r="F22">
-        <v>24.51675331908951</v>
+        <v>23.65001020779391</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.634066397687269</v>
+        <v>4.599317215990957</v>
       </c>
       <c r="I22">
-        <v>4.396661781866143</v>
+        <v>4.307374169479009</v>
       </c>
       <c r="J22">
-        <v>4.251792669778333</v>
+        <v>6.613666634130162</v>
       </c>
       <c r="K22">
-        <v>12.60046371566835</v>
+        <v>11.90122447377457</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>10.47548361643946</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>7.945853428732176</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1529,51 +1655,57 @@
         <v>0</v>
       </c>
       <c r="P22">
-        <v>11.48780711848684</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>18.18497192743744</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>11.73473046230024</v>
+      </c>
+      <c r="S22">
+        <v>17.45769567477266</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26.84069005429713</v>
+        <v>26.2892694851778</v>
       </c>
       <c r="C23">
-        <v>21.639835779703</v>
+        <v>22.5570726684481</v>
       </c>
       <c r="D23">
-        <v>4.533730520703605</v>
+        <v>4.688850392250217</v>
       </c>
       <c r="E23">
-        <v>38.01848474313797</v>
+        <v>37.9673288198634</v>
       </c>
       <c r="F23">
-        <v>24.15875136172127</v>
+        <v>23.32192607673436</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.52889360602386</v>
+        <v>4.496829136459227</v>
       </c>
       <c r="I23">
-        <v>4.325371403770814</v>
+        <v>4.242697917952368</v>
       </c>
       <c r="J23">
-        <v>4.251792669778333</v>
+        <v>6.216599296839348</v>
       </c>
       <c r="K23">
-        <v>12.58045327049121</v>
+        <v>11.90865455634686</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>10.5437359128595</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>7.81686092882231</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1582,51 +1714,57 @@
         <v>0</v>
       </c>
       <c r="P23">
-        <v>11.50401197549562</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>17.9733440052552</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>11.73519051925271</v>
+      </c>
+      <c r="S23">
+        <v>17.27208381155218</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.88208116709128</v>
+        <v>24.41282170455245</v>
       </c>
       <c r="C24">
-        <v>20.12954680914483</v>
+        <v>20.91370955726592</v>
       </c>
       <c r="D24">
-        <v>4.336466760254842</v>
+        <v>4.462391359848739</v>
       </c>
       <c r="E24">
-        <v>35.25526634109256</v>
+        <v>35.22020024731399</v>
       </c>
       <c r="F24">
-        <v>22.73916891580001</v>
+        <v>22.01863589757878</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.122431274002903</v>
+        <v>4.100560366873882</v>
       </c>
       <c r="I24">
-        <v>4.054371781148041</v>
+        <v>3.998794065690638</v>
       </c>
       <c r="J24">
-        <v>4.251792669778333</v>
+        <v>5.713894566704329</v>
       </c>
       <c r="K24">
-        <v>12.48477718774886</v>
+        <v>11.91616992246567</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>10.78504030051415</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>7.326321594583487</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1635,51 +1773,57 @@
         <v>0</v>
       </c>
       <c r="P24">
-        <v>11.58035469532742</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>17.13426179568537</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>11.75352216449815</v>
+      </c>
+      <c r="S24">
+        <v>16.53347988408357</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.57891187502645</v>
+        <v>22.20462175584021</v>
       </c>
       <c r="C25">
-        <v>18.37879762043153</v>
+        <v>19.00607786283717</v>
       </c>
       <c r="D25">
-        <v>4.11068251229598</v>
+        <v>4.203283540982214</v>
       </c>
       <c r="E25">
-        <v>32.03974026158451</v>
+        <v>32.02219463256856</v>
       </c>
       <c r="F25">
-        <v>21.16103823251025</v>
+        <v>20.57093811071581</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>3.667086252115671</v>
+        <v>3.656272965699613</v>
       </c>
       <c r="I25">
-        <v>3.754008352165907</v>
+        <v>3.728707103627487</v>
       </c>
       <c r="J25">
-        <v>4.251792669778333</v>
+        <v>5.711175322947495</v>
       </c>
       <c r="K25">
-        <v>12.41333706485661</v>
+        <v>11.94981117127111</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>11.05207906755176</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>6.872925506146115</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -1688,10 +1832,16 @@
         <v>0</v>
       </c>
       <c r="P25">
-        <v>11.67421122652582</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>16.22429949564732</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>11.78654144490514</v>
+      </c>
+      <c r="S25">
+        <v>15.73431403640954</v>
       </c>
     </row>
   </sheetData>
